--- a/trunk/CSOF5101 Ingeniera de Software/TSP/Util.xlsx
+++ b/trunk/CSOF5101 Ingeniera de Software/TSP/Util.xlsx
@@ -11,15 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="161">
   <si>
     <t>b0</t>
   </si>
@@ -418,6 +415,90 @@
   </si>
   <si>
     <t>3/14/2011 21:02:33</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>1.4.3.1</t>
+  </si>
+  <si>
+    <t>1.4.6.1</t>
+  </si>
+  <si>
+    <t>1.4.6.2</t>
+  </si>
+  <si>
+    <t>1.4.7.3</t>
+  </si>
+  <si>
+    <t>1.4.1.3</t>
+  </si>
+  <si>
+    <t>1.4.5.5</t>
+  </si>
+  <si>
+    <t>1.4.2.2</t>
+  </si>
+  <si>
+    <t>1.4.2.3</t>
+  </si>
+  <si>
+    <t>1.4.7.1</t>
+  </si>
+  <si>
+    <t>1.4.1.4</t>
+  </si>
+  <si>
+    <t>1.4.3.2</t>
+  </si>
+  <si>
+    <t>1.4.4.2</t>
+  </si>
+  <si>
+    <t>1.4.5.6</t>
+  </si>
+  <si>
+    <t>1.4.5.7</t>
+  </si>
+  <si>
+    <t>1.4.6.3</t>
+  </si>
+  <si>
+    <t>1.4.5.1</t>
+  </si>
+  <si>
+    <t>1.4.5.2</t>
+  </si>
+  <si>
+    <t>1.4.5.3</t>
+  </si>
+  <si>
+    <t>1.4.5.4</t>
+  </si>
+  <si>
+    <t>1.4.1.2</t>
+  </si>
+  <si>
+    <t>1.4.2.1</t>
+  </si>
+  <si>
+    <t>1.4.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @LogT(cycle = CYCLE_2, date = "</t>
+  </si>
+  <si>
+    <t>David Pérez</t>
+  </si>
+  <si>
+    <t>sandra</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>erik</t>
   </si>
 </sst>
 </file>
@@ -805,11 +886,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="46791296"/>
-        <c:axId val="68830336"/>
+        <c:axId val="46553728"/>
+        <c:axId val="46576768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46791296"/>
+        <c:axId val="46553728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -851,13 +932,13 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68830336"/>
+        <c:crossAx val="46576768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68830336"/>
+        <c:axId val="46576768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -899,7 +980,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46791296"/>
+        <c:crossAx val="46553728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -930,7 +1011,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1012,19 +1093,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.67</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.83</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.67</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.83</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -1080,22 +1161,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.83</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.83</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.67</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.17</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.83</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,19 +1229,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.67</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.67</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.67</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.83</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -1216,32 +1297,32 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.17</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.33</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.17</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.83</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79170944"/>
-        <c:axId val="79214080"/>
+        <c:axId val="46595456"/>
+        <c:axId val="77633024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79170944"/>
+        <c:axId val="46595456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,14 +1347,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79214080"/>
+        <c:crossAx val="77633024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79214080"/>
+        <c:axId val="77633024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1301,7 +1382,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79170944"/>
+        <c:crossAx val="46595456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1319,7 +1400,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1745,23 +1826,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Hoja3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2047,14 +2111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AA135"/>
+  <dimension ref="B2:AA187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D36" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:N50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="15" max="15" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2315,7 +2382,7 @@
         <v>42.091031996394769</v>
       </c>
     </row>
-    <row r="35" spans="4:27">
+    <row r="35" spans="3:27">
       <c r="D35" s="15" t="s">
         <v>44</v>
       </c>
@@ -2389,7 +2456,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="4:27">
+    <row r="36" spans="3:27">
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
       <c r="D36" s="12">
         <v>5</v>
       </c>
@@ -2400,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" s="12">
         <v>5</v>
@@ -2409,10 +2479,10 @@
         <v>5</v>
       </c>
       <c r="J36" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36" s="12">
         <v>5</v>
@@ -2424,20 +2494,12 @@
         <v>5</v>
       </c>
       <c r="O36" s="10">
-        <v>5</v>
-      </c>
-      <c r="P36" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="11">
-        <v>5</v>
-      </c>
-      <c r="R36" s="11">
-        <v>5</v>
-      </c>
-      <c r="S36" s="10">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="10"/>
       <c r="T36" s="12">
         <v>5</v>
       </c>
@@ -2445,10 +2507,10 @@
         <v>5</v>
       </c>
       <c r="V36" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W36" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X36" s="12">
         <v>5</v>
@@ -2460,57 +2522,44 @@
         <v>5</v>
       </c>
       <c r="AA36" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27">
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="4:27">
-      <c r="D37" s="12">
-        <v>4</v>
       </c>
       <c r="E37" s="11">
         <v>5</v>
       </c>
       <c r="F37" s="11">
+        <v>5</v>
+      </c>
+      <c r="G37" s="10">
+        <v>5</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="12">
         <v>4</v>
       </c>
-      <c r="G37" s="10">
-        <v>4</v>
-      </c>
-      <c r="H37" s="12">
+      <c r="Q37" s="11">
         <v>5</v>
       </c>
-      <c r="I37" s="11">
+      <c r="R37" s="11">
         <v>5</v>
       </c>
-      <c r="J37" s="11">
-        <v>4</v>
-      </c>
-      <c r="K37" s="10">
-        <v>4</v>
-      </c>
-      <c r="L37" s="12">
-        <v>4</v>
-      </c>
-      <c r="M37" s="11">
+      <c r="S37" s="10">
         <v>5</v>
-      </c>
-      <c r="N37" s="11">
-        <v>4</v>
-      </c>
-      <c r="O37" s="10">
-        <v>4</v>
-      </c>
-      <c r="P37" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="11">
-        <v>4</v>
-      </c>
-      <c r="R37" s="11">
-        <v>4</v>
-      </c>
-      <c r="S37" s="10">
-        <v>4</v>
       </c>
       <c r="T37" s="12">
         <v>5</v>
@@ -2537,12 +2586,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="4:27">
+    <row r="38" spans="3:27">
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
       <c r="D38" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" s="11">
         <v>5</v>
@@ -2551,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I38" s="11">
         <v>5</v>
@@ -2566,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="M38" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" s="11">
         <v>4</v>
@@ -2581,23 +2633,15 @@
         <v>4</v>
       </c>
       <c r="R38" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" s="10">
         <v>4</v>
       </c>
-      <c r="T38" s="12">
-        <v>5</v>
-      </c>
-      <c r="U38" s="11">
-        <v>5</v>
-      </c>
-      <c r="V38" s="11">
-        <v>5</v>
-      </c>
-      <c r="W38" s="10">
-        <v>4</v>
-      </c>
+      <c r="T38" s="12"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="10"/>
       <c r="X38" s="12">
         <v>5</v>
       </c>
@@ -2611,9 +2655,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="4:27">
+    <row r="39" spans="3:27">
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
       <c r="D39" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="11">
         <v>5</v>
@@ -2622,10 +2669,10 @@
         <v>5</v>
       </c>
       <c r="G39" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39" s="11">
         <v>5</v>
@@ -2634,31 +2681,23 @@
         <v>5</v>
       </c>
       <c r="K39" s="10">
-        <v>3</v>
-      </c>
-      <c r="L39" s="12">
         <v>5</v>
       </c>
-      <c r="M39" s="11">
-        <v>5</v>
-      </c>
-      <c r="N39" s="11">
-        <v>5</v>
-      </c>
-      <c r="O39" s="10">
-        <v>3</v>
-      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="10"/>
       <c r="P39" s="12">
         <v>4</v>
       </c>
       <c r="Q39" s="11">
+        <v>5</v>
+      </c>
+      <c r="R39" s="11">
+        <v>5</v>
+      </c>
+      <c r="S39" s="10">
         <v>4</v>
-      </c>
-      <c r="R39" s="11">
-        <v>4</v>
-      </c>
-      <c r="S39" s="10">
-        <v>3</v>
       </c>
       <c r="T39" s="12">
         <v>5</v>
@@ -2682,30 +2721,25 @@
         <v>5</v>
       </c>
       <c r="AA39" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27">
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="4:27">
-      <c r="D40" s="12">
+      <c r="I40" s="11">
+        <v>4</v>
+      </c>
+      <c r="J40" s="11">
         <v>5</v>
-      </c>
-      <c r="E40" s="11">
-        <v>5</v>
-      </c>
-      <c r="F40" s="11">
-        <v>4</v>
-      </c>
-      <c r="G40" s="10">
-        <v>5</v>
-      </c>
-      <c r="H40" s="12">
-        <v>5</v>
-      </c>
-      <c r="I40" s="11">
-        <v>5</v>
-      </c>
-      <c r="J40" s="11">
-        <v>4</v>
       </c>
       <c r="K40" s="10">
         <v>4</v>
@@ -2714,19 +2748,19 @@
         <v>5</v>
       </c>
       <c r="M40" s="11">
+        <v>5</v>
+      </c>
+      <c r="N40" s="11">
         <v>4</v>
       </c>
-      <c r="N40" s="11">
+      <c r="O40" s="10">
+        <v>4</v>
+      </c>
+      <c r="P40" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="11">
         <v>5</v>
-      </c>
-      <c r="O40" s="10">
-        <v>5</v>
-      </c>
-      <c r="P40" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="11">
-        <v>4</v>
       </c>
       <c r="R40" s="11">
         <v>5</v>
@@ -2735,13 +2769,13 @@
         <v>4</v>
       </c>
       <c r="T40" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U40" s="11">
         <v>5</v>
       </c>
       <c r="V40" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W40" s="10">
         <v>5</v>
@@ -2750,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="Y40" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z40" s="11">
         <v>5</v>
@@ -2759,18 +2793,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="4:27">
+    <row r="41" spans="3:27">
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
       <c r="D41" s="9">
+        <v>5</v>
+      </c>
+      <c r="E41" s="8">
+        <v>5</v>
+      </c>
+      <c r="F41" s="8">
         <v>4</v>
       </c>
-      <c r="E41" s="8">
+      <c r="G41" s="7">
         <v>4</v>
-      </c>
-      <c r="F41" s="8">
-        <v>5</v>
-      </c>
-      <c r="G41" s="7">
-        <v>5</v>
       </c>
       <c r="H41" s="9">
         <v>4</v>
@@ -2782,10 +2819,10 @@
         <v>4</v>
       </c>
       <c r="K41" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L41" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" s="8">
         <v>5</v>
@@ -2794,19 +2831,19 @@
         <v>5</v>
       </c>
       <c r="O41" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P41" s="9">
         <v>4</v>
       </c>
       <c r="Q41" s="8">
+        <v>5</v>
+      </c>
+      <c r="R41" s="8">
         <v>4</v>
       </c>
-      <c r="R41" s="8">
-        <v>5</v>
-      </c>
       <c r="S41" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T41" s="9">
         <v>5</v>
@@ -2815,25 +2852,17 @@
         <v>5</v>
       </c>
       <c r="V41" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W41" s="7">
         <v>5</v>
       </c>
-      <c r="X41" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="8">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="4:27">
+      <c r="X41" s="9"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="7"/>
+    </row>
+    <row r="45" spans="3:27">
       <c r="H45" t="s">
         <v>20</v>
       </c>
@@ -2853,29 +2882,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="4:27">
+    <row r="46" spans="3:27">
       <c r="G46" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="6">
         <f>ROUND(AVERAGE(D36:D41),2)</f>
-        <v>4.67</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I46" s="6">
         <f>ROUND(AVERAGE(H36:H41),2)</f>
-        <v>4.83</v>
+        <v>4.2</v>
       </c>
       <c r="J46" s="6">
         <f>ROUND(AVERAGE(L36:L41),2)</f>
-        <v>4.67</v>
+        <v>4.5</v>
       </c>
       <c r="K46" s="6">
         <f>ROUND(AVERAGE(P36:P41),2)</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L46" s="6">
         <f>ROUND(AVERAGE(T36:T41),2)</f>
-        <v>4.83</v>
+        <v>5</v>
       </c>
       <c r="M46" s="6">
         <f>ROUND(AVERAGE(X36:X41),2)</f>
@@ -2883,28 +2912,28 @@
       </c>
       <c r="N46" s="6">
         <f>AVERAGE(H46:M46)</f>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="47" spans="4:27">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27">
       <c r="G47" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="6">
         <f>ROUND(AVERAGE(E36:E41),2)</f>
-        <v>4.83</v>
+        <v>4.8</v>
       </c>
       <c r="I47" s="6">
         <f>ROUND(AVERAGE(I36:I41),2)</f>
-        <v>4.83</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J47" s="6">
         <f>ROUND(AVERAGE(M36:M41),2)</f>
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="K47" s="6">
         <f>ROUND(AVERAGE(Q36:Q41),2)</f>
-        <v>4.17</v>
+        <v>4.8</v>
       </c>
       <c r="L47" s="6">
         <f>ROUND(AVERAGE(U36:U41),2)</f>
@@ -2912,36 +2941,36 @@
       </c>
       <c r="M47" s="6">
         <f>ROUND(AVERAGE(Y36:Y41),2)</f>
-        <v>4.83</v>
+        <v>5</v>
       </c>
       <c r="N47" s="6">
         <f>AVERAGE(H47:M47)</f>
-        <v>4.7216666666666667</v>
-      </c>
-    </row>
-    <row r="48" spans="4:27">
+        <v>4.8666666666666663</v>
+      </c>
+    </row>
+    <row r="48" spans="3:27">
       <c r="G48" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="6">
         <f>ROUND(AVERAGE(F36:F41),2)</f>
-        <v>4.67</v>
+        <v>4.8</v>
       </c>
       <c r="I48" s="6">
         <f>ROUND(AVERAGE(J36:J41),2)</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J48" s="6">
         <f>ROUND(AVERAGE(N36:N41),2)</f>
-        <v>4.67</v>
+        <v>4.5</v>
       </c>
       <c r="K48" s="6">
         <f>ROUND(AVERAGE(R36:R41),2)</f>
-        <v>4.67</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L48" s="6">
         <f>ROUND(AVERAGE(V36:V41),2)</f>
-        <v>4.83</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M48" s="6">
         <f>ROUND(AVERAGE(Z36:Z41),2)</f>
@@ -2949,7 +2978,7 @@
       </c>
       <c r="N48" s="6">
         <f>AVERAGE(H48:M48)</f>
-        <v>4.7233333333333327</v>
+        <v>4.6833333333333336</v>
       </c>
     </row>
     <row r="49" spans="7:14">
@@ -2958,57 +2987,57 @@
       </c>
       <c r="H49" s="6">
         <f>ROUND(AVERAGE(G36:G41),2)</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I49" s="6">
         <f>ROUND(AVERAGE(K36:K41),2)</f>
-        <v>4.17</v>
+        <v>4.2</v>
       </c>
       <c r="J49" s="6">
         <f>ROUND(AVERAGE(O36:O41),2)</f>
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K49" s="6">
         <f>ROUND(AVERAGE(S36:S41),2)</f>
-        <v>4.17</v>
+        <v>4.2</v>
       </c>
       <c r="L49" s="6">
         <f>ROUND(AVERAGE(W36:W41),2)</f>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M49" s="6">
         <f>ROUND(AVERAGE(AA36:AA41),2)</f>
-        <v>4.83</v>
+        <v>4.8</v>
       </c>
       <c r="N49" s="6">
         <f>AVERAGE(H49:M49)</f>
-        <v>4.416666666666667</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="50" spans="7:14">
       <c r="H50" s="6">
-        <f>AVERAGE(H46:H49)</f>
-        <v>4.6675000000000004</v>
+        <f t="shared" ref="H50:M50" si="1">AVERAGE(H46:H49)</f>
+        <v>4.6500000000000004</v>
       </c>
       <c r="I50" s="6">
-        <f>AVERAGE(I46:I49)</f>
-        <v>4.5824999999999996</v>
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J50" s="6">
-        <f>AVERAGE(J46:J49)</f>
-        <v>4.585</v>
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
       <c r="K50" s="6">
-        <f>AVERAGE(K46:K49)</f>
-        <v>4.3774999999999995</v>
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L50" s="6">
-        <f>AVERAGE(L46:L49)</f>
-        <v>4.79</v>
+        <f t="shared" si="1"/>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M50" s="6">
-        <f>AVERAGE(M46:M49)</f>
-        <v>4.915</v>
+        <f t="shared" si="1"/>
+        <v>4.95</v>
       </c>
     </row>
     <row r="80" spans="4:19">
@@ -3016,28 +3045,28 @@
         <v>51</v>
       </c>
       <c r="E80" s="16">
-        <f>R80</f>
+        <f t="shared" ref="E80:E111" si="2">R80</f>
         <v>40611</v>
       </c>
       <c r="F80" t="s">
         <v>50</v>
       </c>
       <c r="G80" t="str">
-        <f>Q80</f>
+        <f t="shared" ref="G80:G111" si="3">Q80</f>
         <v>1.2.1</v>
       </c>
       <c r="H80" t="s">
         <v>49</v>
       </c>
       <c r="I80" t="str">
-        <f>P80</f>
+        <f t="shared" ref="I80:I111" si="4">P80</f>
         <v>Willian</v>
       </c>
       <c r="J80" t="s">
         <v>48</v>
       </c>
       <c r="K80">
-        <f>S80</f>
+        <f t="shared" ref="K80:K111" si="5">S80</f>
         <v>30</v>
       </c>
       <c r="L80" t="s">
@@ -3064,28 +3093,28 @@
         <v>51</v>
       </c>
       <c r="E81" s="16">
-        <f>R81</f>
+        <f t="shared" si="2"/>
         <v>40249</v>
       </c>
       <c r="F81" t="s">
         <v>50</v>
       </c>
       <c r="G81" t="str">
-        <f>Q81</f>
+        <f t="shared" si="3"/>
         <v>1.2.1</v>
       </c>
       <c r="H81" t="s">
         <v>49</v>
       </c>
       <c r="I81" t="str">
-        <f>P81</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J81" t="s">
         <v>48</v>
       </c>
       <c r="K81">
-        <f>S81</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="L81" t="s">
@@ -3112,28 +3141,28 @@
         <v>51</v>
       </c>
       <c r="E82" s="16">
-        <f>R82</f>
+        <f t="shared" si="2"/>
         <v>40249</v>
       </c>
       <c r="F82" t="s">
         <v>50</v>
       </c>
       <c r="G82" t="str">
-        <f>Q82</f>
+        <f t="shared" si="3"/>
         <v>1.2.3</v>
       </c>
       <c r="H82" t="s">
         <v>49</v>
       </c>
       <c r="I82" t="str">
-        <f>P82</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J82" t="s">
         <v>48</v>
       </c>
       <c r="K82">
-        <f>S82</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="L82" t="s">
@@ -3160,28 +3189,28 @@
         <v>51</v>
       </c>
       <c r="E83" s="16">
-        <f>R83</f>
+        <f t="shared" si="2"/>
         <v>40611</v>
       </c>
       <c r="F83" t="s">
         <v>50</v>
       </c>
       <c r="G83" t="str">
-        <f>Q83</f>
+        <f t="shared" si="3"/>
         <v>1.3.1.1</v>
       </c>
       <c r="H83" t="s">
         <v>49</v>
       </c>
       <c r="I83" t="str">
-        <f>P83</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
       </c>
       <c r="K83">
-        <f>S83</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="L83" t="s">
@@ -3208,28 +3237,28 @@
         <v>51</v>
       </c>
       <c r="E84" s="16">
-        <f>R84</f>
+        <f t="shared" si="2"/>
         <v>40614</v>
       </c>
       <c r="F84" t="s">
         <v>50</v>
       </c>
       <c r="G84" t="str">
-        <f>Q84</f>
+        <f t="shared" si="3"/>
         <v>1.3.1.4</v>
       </c>
       <c r="H84" t="s">
         <v>49</v>
       </c>
       <c r="I84" t="str">
-        <f>P84</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <f>S84</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="L84" t="s">
@@ -3256,28 +3285,28 @@
         <v>51</v>
       </c>
       <c r="E85" s="16">
-        <f>R85</f>
+        <f t="shared" si="2"/>
         <v>40614</v>
       </c>
       <c r="F85" t="s">
         <v>50</v>
       </c>
       <c r="G85" t="str">
-        <f>Q85</f>
+        <f t="shared" si="3"/>
         <v>1.3.1.5</v>
       </c>
       <c r="H85" t="s">
         <v>49</v>
       </c>
       <c r="I85" t="str">
-        <f>P85</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <f>S85</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="L85" t="s">
@@ -3304,28 +3333,28 @@
         <v>51</v>
       </c>
       <c r="E86" s="16">
-        <f>R86</f>
+        <f t="shared" si="2"/>
         <v>40611</v>
       </c>
       <c r="F86" t="s">
         <v>50</v>
       </c>
       <c r="G86" t="str">
-        <f>Q86</f>
+        <f t="shared" si="3"/>
         <v>1.3.2.1</v>
       </c>
       <c r="H86" t="s">
         <v>49</v>
       </c>
       <c r="I86" t="str">
-        <f>P86</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J86" t="s">
         <v>48</v>
       </c>
       <c r="K86">
-        <f>S86</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L86" t="s">
@@ -3352,28 +3381,28 @@
         <v>51</v>
       </c>
       <c r="E87" s="16">
-        <f>R87</f>
+        <f t="shared" si="2"/>
         <v>40613</v>
       </c>
       <c r="F87" t="s">
         <v>50</v>
       </c>
       <c r="G87" t="str">
-        <f>Q87</f>
+        <f t="shared" si="3"/>
         <v>1.3.3.1</v>
       </c>
       <c r="H87" t="s">
         <v>49</v>
       </c>
       <c r="I87" t="str">
-        <f>P87</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J87" t="s">
         <v>48</v>
       </c>
       <c r="K87">
-        <f>S87</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="L87" t="s">
@@ -3400,28 +3429,28 @@
         <v>51</v>
       </c>
       <c r="E88" s="16">
-        <f>R88</f>
+        <f t="shared" si="2"/>
         <v>40614</v>
       </c>
       <c r="F88" t="s">
         <v>50</v>
       </c>
       <c r="G88" t="str">
-        <f>Q88</f>
+        <f t="shared" si="3"/>
         <v>1.3.3.2</v>
       </c>
       <c r="H88" t="s">
         <v>49</v>
       </c>
       <c r="I88" t="str">
-        <f>P88</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J88" t="s">
         <v>48</v>
       </c>
       <c r="K88">
-        <f>S88</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="L88" t="s">
@@ -3448,28 +3477,28 @@
         <v>51</v>
       </c>
       <c r="E89" s="16">
-        <f>R89</f>
+        <f t="shared" si="2"/>
         <v>40614</v>
       </c>
       <c r="F89" t="s">
         <v>50</v>
       </c>
       <c r="G89" t="str">
-        <f>Q89</f>
+        <f t="shared" si="3"/>
         <v>1.3.4.1</v>
       </c>
       <c r="H89" t="s">
         <v>49</v>
       </c>
       <c r="I89" t="str">
-        <f>P89</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J89" t="s">
         <v>48</v>
       </c>
       <c r="K89">
-        <f>S89</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L89" t="s">
@@ -3496,28 +3525,28 @@
         <v>51</v>
       </c>
       <c r="E90" s="16">
-        <f>R90</f>
+        <f t="shared" si="2"/>
         <v>40613</v>
       </c>
       <c r="F90" t="s">
         <v>50</v>
       </c>
       <c r="G90" t="str">
-        <f>Q90</f>
+        <f t="shared" si="3"/>
         <v>1.3.4.2</v>
       </c>
       <c r="H90" t="s">
         <v>49</v>
       </c>
       <c r="I90" t="str">
-        <f>P90</f>
+        <f t="shared" si="4"/>
         <v>Willian</v>
       </c>
       <c r="J90" t="s">
         <v>48</v>
       </c>
       <c r="K90">
-        <f>S90</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="L90" t="s">
@@ -3544,28 +3573,28 @@
         <v>51</v>
       </c>
       <c r="E91" s="16">
-        <f>R91</f>
+        <f t="shared" si="2"/>
         <v>40611</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>
       </c>
       <c r="G91" t="str">
-        <f>Q91</f>
+        <f t="shared" si="3"/>
         <v>1.2.1</v>
       </c>
       <c r="H91" t="s">
         <v>49</v>
       </c>
       <c r="I91" t="str">
-        <f>P91</f>
+        <f t="shared" si="4"/>
         <v>Sandra</v>
       </c>
       <c r="J91" t="s">
         <v>48</v>
       </c>
       <c r="K91">
-        <f>S91</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="L91" t="s">
@@ -3592,28 +3621,28 @@
         <v>51</v>
       </c>
       <c r="E92" s="16">
-        <f>R92</f>
+        <f t="shared" si="2"/>
         <v>40611</v>
       </c>
       <c r="F92" t="s">
         <v>50</v>
       </c>
       <c r="G92" t="str">
-        <f>Q92</f>
+        <f t="shared" si="3"/>
         <v>1.3.2.4</v>
       </c>
       <c r="H92" t="s">
         <v>49</v>
       </c>
       <c r="I92" t="str">
-        <f>P92</f>
+        <f t="shared" si="4"/>
         <v>David</v>
       </c>
       <c r="J92" t="s">
         <v>48</v>
       </c>
       <c r="K92">
-        <f>S92</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L92" t="s">
@@ -3640,28 +3669,28 @@
         <v>51</v>
       </c>
       <c r="E93" s="16">
-        <f>R93</f>
+        <f t="shared" si="2"/>
         <v>40612</v>
       </c>
       <c r="F93" t="s">
         <v>50</v>
       </c>
       <c r="G93" t="str">
-        <f>Q93</f>
+        <f t="shared" si="3"/>
         <v>1.3.2.4</v>
       </c>
       <c r="H93" t="s">
         <v>49</v>
       </c>
       <c r="I93" t="str">
-        <f>P93</f>
+        <f t="shared" si="4"/>
         <v>David</v>
       </c>
       <c r="J93" t="s">
         <v>48</v>
       </c>
       <c r="K93">
-        <f>S93</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L93" t="s">
@@ -3688,28 +3717,28 @@
         <v>51</v>
       </c>
       <c r="E94" s="16">
-        <f>R94</f>
+        <f t="shared" si="2"/>
         <v>40616</v>
       </c>
       <c r="F94" t="s">
         <v>50</v>
       </c>
       <c r="G94" t="str">
-        <f>Q94</f>
+        <f t="shared" si="3"/>
         <v>1.3.2.4</v>
       </c>
       <c r="H94" t="s">
         <v>49</v>
       </c>
       <c r="I94" t="str">
-        <f>P94</f>
+        <f t="shared" si="4"/>
         <v>David</v>
       </c>
       <c r="J94" t="s">
         <v>48</v>
       </c>
       <c r="K94">
-        <f>S94</f>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="L94" t="s">
@@ -3736,28 +3765,28 @@
         <v>51</v>
       </c>
       <c r="E95" s="16">
-        <f>R95</f>
+        <f t="shared" si="2"/>
         <v>40612</v>
       </c>
       <c r="F95" t="s">
         <v>50</v>
       </c>
       <c r="G95" t="str">
-        <f>Q95</f>
+        <f t="shared" si="3"/>
         <v>1.3.2.3</v>
       </c>
       <c r="H95" t="s">
         <v>49</v>
       </c>
       <c r="I95" t="str">
-        <f>P95</f>
+        <f t="shared" si="4"/>
         <v>Sandra</v>
       </c>
       <c r="J95" t="s">
         <v>48</v>
       </c>
       <c r="K95">
-        <f>S95</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="L95" t="s">
@@ -3784,28 +3813,28 @@
         <v>51</v>
       </c>
       <c r="E96" s="16">
-        <f>R96</f>
+        <f t="shared" si="2"/>
         <v>40614</v>
       </c>
       <c r="F96" t="s">
         <v>50</v>
       </c>
       <c r="G96" t="str">
-        <f>Q96</f>
+        <f t="shared" si="3"/>
         <v>1.3.2.3</v>
       </c>
       <c r="H96" t="s">
         <v>49</v>
       </c>
       <c r="I96" t="str">
-        <f>P96</f>
+        <f t="shared" si="4"/>
         <v>Sandra</v>
       </c>
       <c r="J96" t="s">
         <v>48</v>
       </c>
       <c r="K96">
-        <f>S96</f>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L96" t="s">
@@ -3832,28 +3861,28 @@
         <v>51</v>
       </c>
       <c r="E97" s="16">
-        <f>R97</f>
+        <f t="shared" si="2"/>
         <v>40615</v>
       </c>
       <c r="F97" t="s">
         <v>50</v>
       </c>
       <c r="G97" t="str">
-        <f>Q97</f>
+        <f t="shared" si="3"/>
         <v>1.3.2.3</v>
       </c>
       <c r="H97" t="s">
         <v>49</v>
       </c>
       <c r="I97" t="str">
-        <f>P97</f>
+        <f t="shared" si="4"/>
         <v>Sandra</v>
       </c>
       <c r="J97" t="s">
         <v>48</v>
       </c>
       <c r="K97">
-        <f>S97</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="L97" t="s">
@@ -3880,28 +3909,28 @@
         <v>51</v>
       </c>
       <c r="E98" s="16">
-        <f>R98</f>
+        <f t="shared" si="2"/>
         <v>40611</v>
       </c>
       <c r="F98" t="s">
         <v>50</v>
       </c>
       <c r="G98">
-        <f>Q98</f>
+        <f t="shared" si="3"/>
         <v>9999</v>
       </c>
       <c r="H98" t="s">
         <v>49</v>
       </c>
       <c r="I98" t="str">
-        <f>P98</f>
+        <f t="shared" si="4"/>
         <v>David</v>
       </c>
       <c r="J98" t="s">
         <v>48</v>
       </c>
       <c r="K98">
-        <f>S98</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="L98" t="s">
@@ -3928,28 +3957,28 @@
         <v>51</v>
       </c>
       <c r="E99" s="16">
-        <f>R99</f>
+        <f t="shared" si="2"/>
         <v>40612</v>
       </c>
       <c r="F99" t="s">
         <v>50</v>
       </c>
       <c r="G99">
-        <f>Q99</f>
+        <f t="shared" si="3"/>
         <v>9999</v>
       </c>
       <c r="H99" t="s">
         <v>49</v>
       </c>
       <c r="I99" t="str">
-        <f>P99</f>
+        <f t="shared" si="4"/>
         <v>David</v>
       </c>
       <c r="J99" t="s">
         <v>48</v>
       </c>
       <c r="K99">
-        <f>S99</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L99" t="s">
@@ -3976,28 +4005,28 @@
         <v>51</v>
       </c>
       <c r="E100" s="16">
-        <f>R100</f>
+        <f t="shared" si="2"/>
         <v>40611</v>
       </c>
       <c r="F100" t="s">
         <v>50</v>
       </c>
       <c r="G100" t="str">
-        <f>Q100</f>
+        <f t="shared" si="3"/>
         <v>1.2.1</v>
       </c>
       <c r="H100" t="s">
         <v>49</v>
       </c>
       <c r="I100" t="str">
-        <f>P100</f>
+        <f t="shared" si="4"/>
         <v>Erik</v>
       </c>
       <c r="J100" t="s">
         <v>48</v>
       </c>
       <c r="K100">
-        <f>S100</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="L100" t="s">
@@ -4024,28 +4053,28 @@
         <v>51</v>
       </c>
       <c r="E101" s="16">
-        <f>R101</f>
+        <f t="shared" si="2"/>
         <v>40616</v>
       </c>
       <c r="F101" t="s">
         <v>50</v>
       </c>
       <c r="G101" t="str">
-        <f>Q101</f>
+        <f t="shared" si="3"/>
         <v>1.2.3</v>
       </c>
       <c r="H101" t="s">
         <v>49</v>
       </c>
       <c r="I101" t="str">
-        <f>P101</f>
+        <f t="shared" si="4"/>
         <v>Sandra</v>
       </c>
       <c r="J101" t="s">
         <v>48</v>
       </c>
       <c r="K101">
-        <f>S101</f>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="L101" t="s">
@@ -4072,28 +4101,28 @@
         <v>51</v>
       </c>
       <c r="E102" s="16">
-        <f>R102</f>
+        <f t="shared" si="2"/>
         <v>40611</v>
       </c>
       <c r="F102" t="s">
         <v>50</v>
       </c>
       <c r="G102" t="str">
-        <f>Q102</f>
+        <f t="shared" si="3"/>
         <v>1.3.2.1</v>
       </c>
       <c r="H102" t="s">
         <v>49</v>
       </c>
       <c r="I102" t="str">
-        <f>P102</f>
+        <f t="shared" si="4"/>
         <v>Erik</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <f>S102</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L102" t="s">
@@ -4120,28 +4149,28 @@
         <v>51</v>
       </c>
       <c r="E103" s="16">
-        <f>R103</f>
+        <f t="shared" si="2"/>
         <v>40611</v>
       </c>
       <c r="F103" t="s">
         <v>50</v>
       </c>
       <c r="G103" t="str">
-        <f>Q103</f>
+        <f t="shared" si="3"/>
         <v>1.3.1.1</v>
       </c>
       <c r="H103" t="s">
         <v>49</v>
       </c>
       <c r="I103" t="str">
-        <f>P103</f>
+        <f t="shared" si="4"/>
         <v>Erik</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <f>S103</f>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L103" t="s">
@@ -4168,28 +4197,28 @@
         <v>51</v>
       </c>
       <c r="E104" s="16">
-        <f>R104</f>
+        <f t="shared" si="2"/>
         <v>40614</v>
       </c>
       <c r="F104" t="s">
         <v>50</v>
       </c>
       <c r="G104" t="str">
-        <f>Q104</f>
+        <f t="shared" si="3"/>
         <v>1.3.1.4</v>
       </c>
       <c r="H104" t="s">
         <v>49</v>
       </c>
       <c r="I104" t="str">
-        <f>P104</f>
+        <f t="shared" si="4"/>
         <v>Sandra</v>
       </c>
       <c r="J104" t="s">
         <v>48</v>
       </c>
       <c r="K104">
-        <f>S104</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L104" t="s">
@@ -4216,28 +4245,28 @@
         <v>51</v>
       </c>
       <c r="E105" s="16">
-        <f>R105</f>
+        <f t="shared" si="2"/>
         <v>40616</v>
       </c>
       <c r="F105" t="s">
         <v>50</v>
       </c>
       <c r="G105" t="str">
-        <f>Q105</f>
+        <f t="shared" si="3"/>
         <v>Skype</v>
       </c>
       <c r="H105" t="s">
         <v>49</v>
       </c>
       <c r="I105" t="str">
-        <f>P105</f>
+        <f t="shared" si="4"/>
         <v>Erik</v>
       </c>
       <c r="J105" t="s">
         <v>48</v>
       </c>
       <c r="K105">
-        <f>S105</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="L105" t="s">
@@ -4264,28 +4293,28 @@
         <v>51</v>
       </c>
       <c r="E106" s="16">
-        <f>R106</f>
+        <f t="shared" si="2"/>
         <v>40616</v>
       </c>
       <c r="F106" t="s">
         <v>50</v>
       </c>
       <c r="G106" t="str">
-        <f>Q106</f>
+        <f t="shared" si="3"/>
         <v>1.3.5.1</v>
       </c>
       <c r="H106" t="s">
         <v>49</v>
       </c>
       <c r="I106" t="str">
-        <f>P106</f>
+        <f t="shared" si="4"/>
         <v>Erik</v>
       </c>
       <c r="J106" t="s">
         <v>48</v>
       </c>
       <c r="K106">
-        <f>S106</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="L106" t="s">
@@ -4312,28 +4341,28 @@
         <v>51</v>
       </c>
       <c r="E107" s="16">
-        <f>R107</f>
+        <f t="shared" si="2"/>
         <v>40616</v>
       </c>
       <c r="F107" t="s">
         <v>50</v>
       </c>
       <c r="G107" t="str">
-        <f>Q107</f>
+        <f t="shared" si="3"/>
         <v>1.3.5.2</v>
       </c>
       <c r="H107" t="s">
         <v>49</v>
       </c>
       <c r="I107" t="str">
-        <f>P107</f>
+        <f t="shared" si="4"/>
         <v>Erik</v>
       </c>
       <c r="J107" t="s">
         <v>48</v>
       </c>
       <c r="K107">
-        <f>S107</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="L107" t="s">
@@ -4360,28 +4389,28 @@
         <v>51</v>
       </c>
       <c r="E108" s="16">
-        <f>R108</f>
+        <f t="shared" si="2"/>
         <v>40614</v>
       </c>
       <c r="F108" t="s">
         <v>50</v>
       </c>
       <c r="G108" t="str">
-        <f>Q108</f>
+        <f t="shared" si="3"/>
         <v>1.3.1.1</v>
       </c>
       <c r="H108" t="s">
         <v>49</v>
       </c>
       <c r="I108" t="str">
-        <f>P108</f>
+        <f t="shared" si="4"/>
         <v>Erik</v>
       </c>
       <c r="J108" t="s">
         <v>48</v>
       </c>
       <c r="K108">
-        <f>S108</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="L108" t="s">
@@ -4408,28 +4437,28 @@
         <v>51</v>
       </c>
       <c r="E109" s="16">
-        <f>R109</f>
+        <f t="shared" si="2"/>
         <v>40615</v>
       </c>
       <c r="F109" t="s">
         <v>50</v>
       </c>
       <c r="G109" t="str">
-        <f>Q109</f>
+        <f t="shared" si="3"/>
         <v>1.3.2.2</v>
       </c>
       <c r="H109" t="s">
         <v>49</v>
       </c>
       <c r="I109" t="str">
-        <f>P109</f>
+        <f t="shared" si="4"/>
         <v>Erik</v>
       </c>
       <c r="J109" t="s">
         <v>48</v>
       </c>
       <c r="K109">
-        <f>S109</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L109" t="s">
@@ -4456,28 +4485,28 @@
         <v>51</v>
       </c>
       <c r="E110" s="16">
-        <f>R110</f>
+        <f t="shared" si="2"/>
         <v>40615</v>
       </c>
       <c r="F110" t="s">
         <v>50</v>
       </c>
       <c r="G110" t="str">
-        <f>Q110</f>
+        <f t="shared" si="3"/>
         <v>1.3.1.3</v>
       </c>
       <c r="H110" t="s">
         <v>49</v>
       </c>
       <c r="I110" t="str">
-        <f>P110</f>
+        <f t="shared" si="4"/>
         <v>Mauricio</v>
       </c>
       <c r="J110" t="s">
         <v>48</v>
       </c>
       <c r="K110">
-        <f>S110</f>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L110" t="s">
@@ -4504,28 +4533,28 @@
         <v>51</v>
       </c>
       <c r="E111" s="16">
-        <f>R111</f>
+        <f t="shared" si="2"/>
         <v>40616</v>
       </c>
       <c r="F111" t="s">
         <v>50</v>
       </c>
       <c r="G111">
-        <f>Q111</f>
+        <f t="shared" si="3"/>
         <v>9999</v>
       </c>
       <c r="H111" t="s">
         <v>49</v>
       </c>
       <c r="I111" t="str">
-        <f>P111</f>
+        <f t="shared" si="4"/>
         <v>David</v>
       </c>
       <c r="J111" t="s">
         <v>48</v>
       </c>
       <c r="K111">
-        <f>S111</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L111" t="s">
@@ -4552,28 +4581,28 @@
         <v>51</v>
       </c>
       <c r="E112" s="16">
-        <f>R112</f>
+        <f t="shared" ref="E112:E135" si="6">R112</f>
         <v>40616</v>
       </c>
       <c r="F112" t="s">
         <v>50</v>
       </c>
       <c r="G112" t="str">
-        <f>Q112</f>
+        <f t="shared" ref="G112:G135" si="7">Q112</f>
         <v>1.3.1.3</v>
       </c>
       <c r="H112" t="s">
         <v>49</v>
       </c>
       <c r="I112" t="str">
-        <f>P112</f>
+        <f t="shared" ref="I112:I135" si="8">P112</f>
         <v>Mauricio</v>
       </c>
       <c r="J112" t="s">
         <v>48</v>
       </c>
       <c r="K112">
-        <f>S112</f>
+        <f t="shared" ref="K112:K135" si="9">S112</f>
         <v>180</v>
       </c>
       <c r="L112" t="s">
@@ -4600,28 +4629,28 @@
         <v>51</v>
       </c>
       <c r="E113" s="16">
-        <f>R113</f>
+        <f t="shared" si="6"/>
         <v>40611</v>
       </c>
       <c r="F113" t="s">
         <v>50</v>
       </c>
       <c r="G113" t="str">
-        <f>Q113</f>
+        <f t="shared" si="7"/>
         <v>1.2.1</v>
       </c>
       <c r="H113" t="s">
         <v>49</v>
       </c>
       <c r="I113" t="str">
-        <f>P113</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J113" t="s">
         <v>48</v>
       </c>
       <c r="K113">
-        <f>S113</f>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="L113" t="s">
@@ -4648,28 +4677,28 @@
         <v>51</v>
       </c>
       <c r="E114" s="16">
-        <f>R114</f>
+        <f t="shared" si="6"/>
         <v>40611</v>
       </c>
       <c r="F114" t="s">
         <v>50</v>
       </c>
       <c r="G114" t="str">
-        <f>Q114</f>
+        <f t="shared" si="7"/>
         <v>1.21</v>
       </c>
       <c r="H114" t="s">
         <v>49</v>
       </c>
       <c r="I114" t="str">
-        <f>P114</f>
+        <f t="shared" si="8"/>
         <v>David</v>
       </c>
       <c r="J114" t="s">
         <v>48</v>
       </c>
       <c r="K114">
-        <f>S114</f>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="L114" t="s">
@@ -4696,28 +4725,28 @@
         <v>51</v>
       </c>
       <c r="E115" s="16">
-        <f>R115</f>
+        <f t="shared" si="6"/>
         <v>40613</v>
       </c>
       <c r="F115" t="s">
         <v>50</v>
       </c>
       <c r="G115" t="str">
-        <f>Q115</f>
+        <f t="shared" si="7"/>
         <v>1.2.2</v>
       </c>
       <c r="H115" t="s">
         <v>49</v>
       </c>
       <c r="I115" t="str">
-        <f>P115</f>
+        <f t="shared" si="8"/>
         <v>David</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
       </c>
       <c r="K115">
-        <f>S115</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="L115" t="s">
@@ -4744,28 +4773,28 @@
         <v>51</v>
       </c>
       <c r="E116" s="16">
-        <f>R116</f>
+        <f t="shared" si="6"/>
         <v>40616</v>
       </c>
       <c r="F116" t="s">
         <v>50</v>
       </c>
       <c r="G116" t="str">
-        <f>Q116</f>
+        <f t="shared" si="7"/>
         <v>1.2.3</v>
       </c>
       <c r="H116" t="s">
         <v>49</v>
       </c>
       <c r="I116" t="str">
-        <f>P116</f>
+        <f t="shared" si="8"/>
         <v>David</v>
       </c>
       <c r="J116" t="s">
         <v>48</v>
       </c>
       <c r="K116">
-        <f>S116</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="L116" t="s">
@@ -4792,28 +4821,28 @@
         <v>51</v>
       </c>
       <c r="E117" s="16">
-        <f>R117</f>
+        <f t="shared" si="6"/>
         <v>40614</v>
       </c>
       <c r="F117" t="s">
         <v>50</v>
       </c>
       <c r="G117" t="str">
-        <f>Q117</f>
+        <f t="shared" si="7"/>
         <v>1.2.3</v>
       </c>
       <c r="H117" t="s">
         <v>49</v>
       </c>
       <c r="I117" t="str">
-        <f>P117</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J117" t="s">
         <v>48</v>
       </c>
       <c r="K117">
-        <f>S117</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="L117" t="s">
@@ -4840,28 +4869,28 @@
         <v>51</v>
       </c>
       <c r="E118" s="16">
-        <f>R118</f>
+        <f t="shared" si="6"/>
         <v>40611</v>
       </c>
       <c r="F118" t="s">
         <v>50</v>
       </c>
       <c r="G118" t="str">
-        <f>Q118</f>
+        <f t="shared" si="7"/>
         <v>Internet</v>
       </c>
       <c r="H118" t="s">
         <v>49</v>
       </c>
       <c r="I118" t="str">
-        <f>P118</f>
+        <f t="shared" si="8"/>
         <v>Willian</v>
       </c>
       <c r="J118" t="s">
         <v>48</v>
       </c>
       <c r="K118">
-        <f>S118</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="L118" t="s">
@@ -4888,28 +4917,28 @@
         <v>51</v>
       </c>
       <c r="E119" s="16">
-        <f>R119</f>
+        <f t="shared" si="6"/>
         <v>40614</v>
       </c>
       <c r="F119" t="s">
         <v>50</v>
       </c>
       <c r="G119" t="str">
-        <f>Q119</f>
+        <f t="shared" si="7"/>
         <v>1.3.1.4</v>
       </c>
       <c r="H119" t="s">
         <v>49</v>
       </c>
       <c r="I119" t="str">
-        <f>P119</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <f>S119</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="L119" t="s">
@@ -4936,28 +4965,28 @@
         <v>51</v>
       </c>
       <c r="E120" s="16">
-        <f>R120</f>
+        <f t="shared" si="6"/>
         <v>40611</v>
       </c>
       <c r="F120" t="s">
         <v>50</v>
       </c>
       <c r="G120" t="str">
-        <f>Q120</f>
+        <f t="shared" si="7"/>
         <v>internet</v>
       </c>
       <c r="H120" t="s">
         <v>49</v>
       </c>
       <c r="I120" t="str">
-        <f>P120</f>
+        <f t="shared" si="8"/>
         <v>David</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <f>S120</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="L120" t="s">
@@ -4984,28 +5013,28 @@
         <v>51</v>
       </c>
       <c r="E121" s="16">
-        <f>R121</f>
+        <f t="shared" si="6"/>
         <v>40614</v>
       </c>
       <c r="F121" t="s">
         <v>50</v>
       </c>
       <c r="G121" t="str">
-        <f>Q121</f>
+        <f t="shared" si="7"/>
         <v>1.3.1.5</v>
       </c>
       <c r="H121" t="s">
         <v>49</v>
       </c>
       <c r="I121" t="str">
-        <f>P121</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
       </c>
       <c r="K121">
-        <f>S121</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="L121" t="s">
@@ -5032,28 +5061,28 @@
         <v>51</v>
       </c>
       <c r="E122" s="16">
-        <f>R122</f>
+        <f t="shared" si="6"/>
         <v>40614</v>
       </c>
       <c r="F122" t="s">
         <v>50</v>
       </c>
       <c r="G122" t="str">
-        <f>Q122</f>
+        <f t="shared" si="7"/>
         <v>1.3.2.5</v>
       </c>
       <c r="H122" t="s">
         <v>49</v>
       </c>
       <c r="I122" t="str">
-        <f>P122</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J122" t="s">
         <v>48</v>
       </c>
       <c r="K122">
-        <f>S122</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="L122" t="s">
@@ -5080,28 +5109,28 @@
         <v>51</v>
       </c>
       <c r="E123" s="16">
-        <f>R123</f>
+        <f t="shared" si="6"/>
         <v>40612</v>
       </c>
       <c r="F123" t="s">
         <v>50</v>
       </c>
       <c r="G123" t="str">
-        <f>Q123</f>
+        <f t="shared" si="7"/>
         <v>Cena</v>
       </c>
       <c r="H123" t="s">
         <v>49</v>
       </c>
       <c r="I123" t="str">
-        <f>P123</f>
+        <f t="shared" si="8"/>
         <v>David</v>
       </c>
       <c r="J123" t="s">
         <v>48</v>
       </c>
       <c r="K123">
-        <f>S123</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="L123" t="s">
@@ -5128,28 +5157,28 @@
         <v>51</v>
       </c>
       <c r="E124" s="16">
-        <f>R124</f>
+        <f t="shared" si="6"/>
         <v>40612</v>
       </c>
       <c r="F124" t="s">
         <v>50</v>
       </c>
       <c r="G124" t="str">
-        <f>Q124</f>
+        <f t="shared" si="7"/>
         <v>Cena</v>
       </c>
       <c r="H124" t="s">
         <v>49</v>
       </c>
       <c r="I124" t="str">
-        <f>P124</f>
+        <f t="shared" si="8"/>
         <v>David</v>
       </c>
       <c r="J124" t="s">
         <v>48</v>
       </c>
       <c r="K124">
-        <f>S124</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="L124" t="s">
@@ -5176,28 +5205,28 @@
         <v>51</v>
       </c>
       <c r="E125" s="16">
-        <f>R125</f>
+        <f t="shared" si="6"/>
         <v>40614</v>
       </c>
       <c r="F125" t="s">
         <v>50</v>
       </c>
       <c r="G125" t="str">
-        <f>Q125</f>
+        <f t="shared" si="7"/>
         <v>1.3.3.2</v>
       </c>
       <c r="H125" t="s">
         <v>49</v>
       </c>
       <c r="I125" t="str">
-        <f>P125</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J125" t="s">
         <v>48</v>
       </c>
       <c r="K125">
-        <f>S125</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="L125" t="s">
@@ -5224,28 +5253,28 @@
         <v>51</v>
       </c>
       <c r="E126" s="16">
-        <f>R126</f>
+        <f t="shared" si="6"/>
         <v>40613</v>
       </c>
       <c r="F126" t="s">
         <v>50</v>
       </c>
       <c r="G126" t="str">
-        <f>Q126</f>
+        <f t="shared" si="7"/>
         <v>Internet</v>
       </c>
       <c r="H126" t="s">
         <v>49</v>
       </c>
       <c r="I126" t="str">
-        <f>P126</f>
+        <f t="shared" si="8"/>
         <v>David</v>
       </c>
       <c r="J126" t="s">
         <v>48</v>
       </c>
       <c r="K126">
-        <f>S126</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="L126" t="s">
@@ -5272,28 +5301,28 @@
         <v>51</v>
       </c>
       <c r="E127" s="16">
-        <f>R127</f>
+        <f t="shared" si="6"/>
         <v>40614</v>
       </c>
       <c r="F127" t="s">
         <v>50</v>
       </c>
       <c r="G127" t="str">
-        <f>Q127</f>
+        <f t="shared" si="7"/>
         <v>1.3.3.4</v>
       </c>
       <c r="H127" t="s">
         <v>49</v>
       </c>
       <c r="I127" t="str">
-        <f>P127</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J127" t="s">
         <v>48</v>
       </c>
       <c r="K127">
-        <f>S127</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="L127" t="s">
@@ -5320,28 +5349,28 @@
         <v>51</v>
       </c>
       <c r="E128" s="16">
-        <f>R128</f>
+        <f t="shared" si="6"/>
         <v>40616</v>
       </c>
       <c r="F128" t="s">
         <v>50</v>
       </c>
       <c r="G128" t="str">
-        <f>Q128</f>
+        <f t="shared" si="7"/>
         <v>Cena</v>
       </c>
       <c r="H128" t="s">
         <v>49</v>
       </c>
       <c r="I128" t="str">
-        <f>P128</f>
+        <f t="shared" si="8"/>
         <v>David</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <f>S128</f>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="L128" t="s">
@@ -5368,28 +5397,28 @@
         <v>51</v>
       </c>
       <c r="E129" s="16">
-        <f>R129</f>
+        <f t="shared" si="6"/>
         <v>40614</v>
       </c>
       <c r="F129" t="s">
         <v>50</v>
       </c>
       <c r="G129" t="str">
-        <f>Q129</f>
+        <f t="shared" si="7"/>
         <v>1.3.7.1</v>
       </c>
       <c r="H129" t="s">
         <v>49</v>
       </c>
       <c r="I129" t="str">
-        <f>P129</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J129" t="s">
         <v>48</v>
       </c>
       <c r="K129">
-        <f>S129</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="L129" t="s">
@@ -5416,28 +5445,28 @@
         <v>51</v>
       </c>
       <c r="E130" s="16">
-        <f>R130</f>
+        <f t="shared" si="6"/>
         <v>40611</v>
       </c>
       <c r="F130" t="s">
         <v>50</v>
       </c>
       <c r="G130" t="str">
-        <f>Q130</f>
+        <f t="shared" si="7"/>
         <v>Baño</v>
       </c>
       <c r="H130" t="s">
         <v>49</v>
       </c>
       <c r="I130" t="str">
-        <f>P130</f>
+        <f t="shared" si="8"/>
         <v>Carlos</v>
       </c>
       <c r="J130" t="s">
         <v>48</v>
       </c>
       <c r="K130">
-        <f>S130</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="L130" t="s">
@@ -5464,28 +5493,28 @@
         <v>51</v>
       </c>
       <c r="E131" s="16">
-        <f>R131</f>
+        <f t="shared" si="6"/>
         <v>40616</v>
       </c>
       <c r="F131" t="s">
         <v>50</v>
       </c>
       <c r="G131" t="str">
-        <f>Q131</f>
+        <f t="shared" si="7"/>
         <v>LlamadaTelefonica</v>
       </c>
       <c r="H131" t="s">
         <v>49</v>
       </c>
       <c r="I131" t="str">
-        <f>P131</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J131" t="s">
         <v>48</v>
       </c>
       <c r="K131">
-        <f>S131</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="L131" t="s">
@@ -5512,28 +5541,28 @@
         <v>51</v>
       </c>
       <c r="E132" s="16">
-        <f>R132</f>
+        <f t="shared" si="6"/>
         <v>40615</v>
       </c>
       <c r="F132" t="s">
         <v>50</v>
       </c>
       <c r="G132" t="str">
-        <f>Q132</f>
+        <f t="shared" si="7"/>
         <v>LlamadaTelefonica</v>
       </c>
       <c r="H132" t="s">
         <v>49</v>
       </c>
       <c r="I132" t="str">
-        <f>P132</f>
+        <f t="shared" si="8"/>
         <v>Mauricio</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <f>S132</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="L132" t="s">
@@ -5560,28 +5589,28 @@
         <v>51</v>
       </c>
       <c r="E133" s="16">
-        <f>R133</f>
+        <f t="shared" si="6"/>
         <v>40615</v>
       </c>
       <c r="F133" t="s">
         <v>50</v>
       </c>
       <c r="G133" t="str">
-        <f>Q133</f>
+        <f t="shared" si="7"/>
         <v>PedirComida</v>
       </c>
       <c r="H133" t="s">
         <v>49</v>
       </c>
       <c r="I133" t="str">
-        <f>P133</f>
+        <f t="shared" si="8"/>
         <v>Carlos</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <f>S133</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="L133" t="s">
@@ -5608,28 +5637,28 @@
         <v>51</v>
       </c>
       <c r="E134" s="16">
-        <f>R134</f>
+        <f t="shared" si="6"/>
         <v>40616</v>
       </c>
       <c r="F134" t="s">
         <v>50</v>
       </c>
       <c r="G134" t="str">
-        <f>Q134</f>
+        <f t="shared" si="7"/>
         <v>PedirComida</v>
       </c>
       <c r="H134" t="s">
         <v>49</v>
       </c>
       <c r="I134" t="str">
-        <f>P134</f>
+        <f t="shared" si="8"/>
         <v>Carlos</v>
       </c>
       <c r="J134" t="s">
         <v>48</v>
       </c>
       <c r="K134">
-        <f>S134</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="L134" t="s">
@@ -5656,28 +5685,28 @@
         <v>51</v>
       </c>
       <c r="E135" s="16">
-        <f>R135</f>
+        <f t="shared" si="6"/>
         <v>40616</v>
       </c>
       <c r="F135" t="s">
         <v>50</v>
       </c>
       <c r="G135" t="str">
-        <f>Q135</f>
+        <f t="shared" si="7"/>
         <v>1.3.5.1</v>
       </c>
       <c r="H135" t="s">
         <v>49</v>
       </c>
       <c r="I135" t="str">
-        <f>P135</f>
+        <f t="shared" si="8"/>
         <v>Erik</v>
       </c>
       <c r="J135" t="s">
         <v>48</v>
       </c>
       <c r="K135">
-        <f>S135</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="L135" t="s">
@@ -5697,6 +5726,2304 @@
       </c>
       <c r="S135">
         <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="4:19">
+      <c r="E136" s="16"/>
+    </row>
+    <row r="137" spans="4:19">
+      <c r="D137" t="s">
+        <v>156</v>
+      </c>
+      <c r="E137" s="16">
+        <f t="shared" ref="E136:E187" si="10">R137</f>
+        <v>40620</v>
+      </c>
+      <c r="F137" t="s">
+        <v>50</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" ref="G136:G187" si="11">Q137</f>
+        <v>1.4.1.1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>49</v>
+      </c>
+      <c r="I137">
+        <f t="shared" ref="I136:I187" si="12">P137</f>
+        <v>201110544</v>
+      </c>
+      <c r="J137" t="s">
+        <v>48</v>
+      </c>
+      <c r="K137">
+        <f t="shared" ref="K136:K187" si="13">S137</f>
+        <v>60</v>
+      </c>
+      <c r="L137" t="s">
+        <v>47</v>
+      </c>
+      <c r="P137">
+        <v>201110544</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>133</v>
+      </c>
+      <c r="R137" s="16">
+        <v>40620</v>
+      </c>
+      <c r="S137">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="4:19">
+      <c r="D138" t="s">
+        <v>156</v>
+      </c>
+      <c r="E138" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F138" t="s">
+        <v>50</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.3.1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>49</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="12"/>
+        <v>201110544</v>
+      </c>
+      <c r="J138" t="s">
+        <v>48</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="L138" t="s">
+        <v>47</v>
+      </c>
+      <c r="P138">
+        <v>201110544</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>134</v>
+      </c>
+      <c r="R138" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S138">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="4:19">
+      <c r="D139" t="s">
+        <v>156</v>
+      </c>
+      <c r="E139" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F139" t="s">
+        <v>50</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.6.1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>49</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="12"/>
+        <v>201110544</v>
+      </c>
+      <c r="J139" t="s">
+        <v>48</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="L139" t="s">
+        <v>47</v>
+      </c>
+      <c r="P139">
+        <v>201110544</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>135</v>
+      </c>
+      <c r="R139" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S139">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="4:19">
+      <c r="D140" t="s">
+        <v>156</v>
+      </c>
+      <c r="E140" s="16">
+        <f t="shared" si="10"/>
+        <v>40622</v>
+      </c>
+      <c r="F140" t="s">
+        <v>50</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.6.2</v>
+      </c>
+      <c r="H140" t="s">
+        <v>49</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="12"/>
+        <v>201110544</v>
+      </c>
+      <c r="J140" t="s">
+        <v>48</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="L140" t="s">
+        <v>47</v>
+      </c>
+      <c r="P140">
+        <v>201110544</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>136</v>
+      </c>
+      <c r="R140" s="16">
+        <v>40622</v>
+      </c>
+      <c r="S140">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="4:19">
+      <c r="D141" t="s">
+        <v>156</v>
+      </c>
+      <c r="E141" s="16">
+        <f t="shared" si="10"/>
+        <v>40624</v>
+      </c>
+      <c r="F141" t="s">
+        <v>50</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.7.3</v>
+      </c>
+      <c r="H141" t="s">
+        <v>49</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="12"/>
+        <v>201110544</v>
+      </c>
+      <c r="J141" t="s">
+        <v>48</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="L141" t="s">
+        <v>47</v>
+      </c>
+      <c r="P141">
+        <v>201110544</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>137</v>
+      </c>
+      <c r="R141" s="16">
+        <v>40624</v>
+      </c>
+      <c r="S141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="4:19">
+      <c r="D142" t="s">
+        <v>156</v>
+      </c>
+      <c r="E142" s="16">
+        <f t="shared" si="10"/>
+        <v>40617</v>
+      </c>
+      <c r="F142" t="s">
+        <v>50</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>49</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="12"/>
+        <v>201117818</v>
+      </c>
+      <c r="J142" t="s">
+        <v>48</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="L142" t="s">
+        <v>47</v>
+      </c>
+      <c r="P142">
+        <v>201117818</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>133</v>
+      </c>
+      <c r="R142" s="16">
+        <v>40617</v>
+      </c>
+      <c r="S142">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="4:19">
+      <c r="D143" t="s">
+        <v>156</v>
+      </c>
+      <c r="E143" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F143" t="s">
+        <v>50</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.3</v>
+      </c>
+      <c r="H143" t="s">
+        <v>49</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="12"/>
+        <v>201117818</v>
+      </c>
+      <c r="J143" t="s">
+        <v>48</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L143" t="s">
+        <v>47</v>
+      </c>
+      <c r="P143">
+        <v>201117818</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>138</v>
+      </c>
+      <c r="R143" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S143">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="4:19">
+      <c r="D144" t="s">
+        <v>156</v>
+      </c>
+      <c r="E144" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F144" t="s">
+        <v>50</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.5</v>
+      </c>
+      <c r="H144" t="s">
+        <v>49</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J144" t="s">
+        <v>48</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="L144" t="s">
+        <v>47</v>
+      </c>
+      <c r="P144">
+        <v>201110951</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>139</v>
+      </c>
+      <c r="R144" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S144">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="145" spans="4:19">
+      <c r="D145" t="s">
+        <v>156</v>
+      </c>
+      <c r="E145" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F145" t="s">
+        <v>50</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.2.2</v>
+      </c>
+      <c r="H145" t="s">
+        <v>49</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="12"/>
+        <v>201117818</v>
+      </c>
+      <c r="J145" t="s">
+        <v>48</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="13"/>
+        <v>56</v>
+      </c>
+      <c r="L145" t="s">
+        <v>47</v>
+      </c>
+      <c r="P145">
+        <v>201117818</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>140</v>
+      </c>
+      <c r="R145" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S145">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="4:19">
+      <c r="D146" t="s">
+        <v>156</v>
+      </c>
+      <c r="E146" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F146" t="s">
+        <v>50</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.2.3</v>
+      </c>
+      <c r="H146" t="s">
+        <v>49</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="12"/>
+        <v>201117818</v>
+      </c>
+      <c r="J146" t="s">
+        <v>48</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="L146" t="s">
+        <v>47</v>
+      </c>
+      <c r="P146">
+        <v>201117818</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>141</v>
+      </c>
+      <c r="R146" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S146">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="4:19">
+      <c r="D147" t="s">
+        <v>156</v>
+      </c>
+      <c r="E147" s="16">
+        <f t="shared" si="10"/>
+        <v>40624</v>
+      </c>
+      <c r="F147" t="s">
+        <v>50</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.7.1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>49</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J147" t="s">
+        <v>48</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="L147" t="s">
+        <v>47</v>
+      </c>
+      <c r="P147">
+        <v>201110951</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>142</v>
+      </c>
+      <c r="R147" s="16">
+        <v>40624</v>
+      </c>
+      <c r="S147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="4:19">
+      <c r="D148" t="s">
+        <v>156</v>
+      </c>
+      <c r="E148" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F148" t="s">
+        <v>50</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>49</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J148" t="s">
+        <v>48</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="L148" t="s">
+        <v>47</v>
+      </c>
+      <c r="P148">
+        <v>201110949</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>133</v>
+      </c>
+      <c r="R148" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S148">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="4:19">
+      <c r="D149" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F149" t="s">
+        <v>50</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.3</v>
+      </c>
+      <c r="H149" t="s">
+        <v>49</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J149" t="s">
+        <v>48</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="L149" t="s">
+        <v>47</v>
+      </c>
+      <c r="P149">
+        <v>201110949</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>138</v>
+      </c>
+      <c r="R149" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S149">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="4:19">
+      <c r="D150" t="s">
+        <v>156</v>
+      </c>
+      <c r="E150" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F150" t="s">
+        <v>50</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.2.3</v>
+      </c>
+      <c r="H150" t="s">
+        <v>49</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J150" t="s">
+        <v>48</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="L150" t="s">
+        <v>47</v>
+      </c>
+      <c r="P150">
+        <v>201110949</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>141</v>
+      </c>
+      <c r="R150" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S150">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="4:19">
+      <c r="D151" t="s">
+        <v>156</v>
+      </c>
+      <c r="E151" s="16">
+        <f t="shared" si="10"/>
+        <v>40625</v>
+      </c>
+      <c r="F151" t="s">
+        <v>50</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.7.1</v>
+      </c>
+      <c r="H151" t="s">
+        <v>49</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="12"/>
+        <v>201117818</v>
+      </c>
+      <c r="J151" t="s">
+        <v>48</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="13"/>
+        <v>43</v>
+      </c>
+      <c r="L151" t="s">
+        <v>47</v>
+      </c>
+      <c r="P151">
+        <v>201117818</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>142</v>
+      </c>
+      <c r="R151" s="16">
+        <v>40625</v>
+      </c>
+      <c r="S151">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="4:19">
+      <c r="D152" t="s">
+        <v>156</v>
+      </c>
+      <c r="E152" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F152" t="s">
+        <v>50</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.4</v>
+      </c>
+      <c r="H152" t="s">
+        <v>49</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J152" t="s">
+        <v>48</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="L152" t="s">
+        <v>47</v>
+      </c>
+      <c r="P152">
+        <v>201110949</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>143</v>
+      </c>
+      <c r="R152" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S152">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="4:19">
+      <c r="D153" t="s">
+        <v>156</v>
+      </c>
+      <c r="E153" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F153" t="s">
+        <v>50</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.3.2</v>
+      </c>
+      <c r="H153" t="s">
+        <v>49</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J153" t="s">
+        <v>48</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L153" t="s">
+        <v>47</v>
+      </c>
+      <c r="P153">
+        <v>201110949</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>144</v>
+      </c>
+      <c r="R153" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S153">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="4:19">
+      <c r="D154" t="s">
+        <v>156</v>
+      </c>
+      <c r="E154" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F154" t="s">
+        <v>50</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.4.2</v>
+      </c>
+      <c r="H154" t="s">
+        <v>49</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="12"/>
+        <v>200819123</v>
+      </c>
+      <c r="J154" t="s">
+        <v>48</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L154" t="s">
+        <v>47</v>
+      </c>
+      <c r="P154">
+        <v>200819123</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>145</v>
+      </c>
+      <c r="R154" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S154">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="4:19">
+      <c r="D155" t="s">
+        <v>156</v>
+      </c>
+      <c r="E155" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F155" t="s">
+        <v>50</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.6</v>
+      </c>
+      <c r="H155" t="s">
+        <v>49</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J155" t="s">
+        <v>48</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="L155" t="s">
+        <v>47</v>
+      </c>
+      <c r="P155">
+        <v>201110949</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>146</v>
+      </c>
+      <c r="R155" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S155">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="4:19">
+      <c r="D156" t="s">
+        <v>156</v>
+      </c>
+      <c r="E156" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F156" t="s">
+        <v>50</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.7</v>
+      </c>
+      <c r="H156" t="s">
+        <v>49</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J156" t="s">
+        <v>48</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L156" t="s">
+        <v>47</v>
+      </c>
+      <c r="P156">
+        <v>201110949</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>147</v>
+      </c>
+      <c r="R156" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S156">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="4:19">
+      <c r="D157" t="s">
+        <v>156</v>
+      </c>
+      <c r="E157" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F157" t="s">
+        <v>50</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.6.1</v>
+      </c>
+      <c r="H157" t="s">
+        <v>49</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J157" t="s">
+        <v>48</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L157" t="s">
+        <v>47</v>
+      </c>
+      <c r="P157">
+        <v>201110949</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>135</v>
+      </c>
+      <c r="R157" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S157">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="4:19">
+      <c r="D158" t="s">
+        <v>156</v>
+      </c>
+      <c r="E158" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F158" t="s">
+        <v>50</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.6.3</v>
+      </c>
+      <c r="H158" t="s">
+        <v>49</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J158" t="s">
+        <v>48</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="L158" t="s">
+        <v>47</v>
+      </c>
+      <c r="P158">
+        <v>201110949</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>148</v>
+      </c>
+      <c r="R158" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S158">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="4:19">
+      <c r="D159" t="s">
+        <v>156</v>
+      </c>
+      <c r="E159" s="16">
+        <f t="shared" si="10"/>
+        <v>40624</v>
+      </c>
+      <c r="F159" t="s">
+        <v>50</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.7.3</v>
+      </c>
+      <c r="H159" t="s">
+        <v>49</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J159" t="s">
+        <v>48</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="L159" t="s">
+        <v>47</v>
+      </c>
+      <c r="P159">
+        <v>201110949</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>137</v>
+      </c>
+      <c r="R159" s="16">
+        <v>40624</v>
+      </c>
+      <c r="S159">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="4:19">
+      <c r="D160" t="s">
+        <v>156</v>
+      </c>
+      <c r="E160" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F160" t="s">
+        <v>50</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.7</v>
+      </c>
+      <c r="H160" t="s">
+        <v>49</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="12"/>
+        <v>201110856</v>
+      </c>
+      <c r="J160" t="s">
+        <v>48</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="L160" t="s">
+        <v>47</v>
+      </c>
+      <c r="P160">
+        <v>201110856</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>147</v>
+      </c>
+      <c r="R160" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S160">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="4:19">
+      <c r="D161" t="s">
+        <v>156</v>
+      </c>
+      <c r="E161" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F161" t="s">
+        <v>50</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>49</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="12"/>
+        <v>201110856</v>
+      </c>
+      <c r="J161" t="s">
+        <v>48</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L161" t="s">
+        <v>47</v>
+      </c>
+      <c r="P161">
+        <v>201110856</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>149</v>
+      </c>
+      <c r="R161" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S161">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="4:19">
+      <c r="D162" t="s">
+        <v>156</v>
+      </c>
+      <c r="E162" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F162" t="s">
+        <v>50</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.1</v>
+      </c>
+      <c r="H162" t="s">
+        <v>49</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="12"/>
+        <v>201110544</v>
+      </c>
+      <c r="J162" t="s">
+        <v>48</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="L162" t="s">
+        <v>47</v>
+      </c>
+      <c r="P162">
+        <v>201110544</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>149</v>
+      </c>
+      <c r="R162" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S162">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="4:19">
+      <c r="D163" t="s">
+        <v>156</v>
+      </c>
+      <c r="E163" s="16">
+        <f t="shared" si="10"/>
+        <v>40622</v>
+      </c>
+      <c r="F163" t="s">
+        <v>50</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>49</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="12"/>
+        <v>201110856</v>
+      </c>
+      <c r="J163" t="s">
+        <v>48</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="L163" t="s">
+        <v>47</v>
+      </c>
+      <c r="P163">
+        <v>201110856</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>149</v>
+      </c>
+      <c r="R163" s="16">
+        <v>40622</v>
+      </c>
+      <c r="S163">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="164" spans="4:19">
+      <c r="D164" t="s">
+        <v>156</v>
+      </c>
+      <c r="E164" s="16">
+        <f t="shared" si="10"/>
+        <v>40622</v>
+      </c>
+      <c r="F164" t="s">
+        <v>50</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>49</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="12"/>
+        <v>201110544</v>
+      </c>
+      <c r="J164" t="s">
+        <v>48</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="L164" t="s">
+        <v>47</v>
+      </c>
+      <c r="P164">
+        <v>201110544</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>149</v>
+      </c>
+      <c r="R164" s="16">
+        <v>40622</v>
+      </c>
+      <c r="S164">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="4:19">
+      <c r="D165" t="s">
+        <v>156</v>
+      </c>
+      <c r="E165" s="16">
+        <f t="shared" si="10"/>
+        <v>40624</v>
+      </c>
+      <c r="F165" t="s">
+        <v>50</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.2</v>
+      </c>
+      <c r="H165" t="s">
+        <v>49</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J165" t="s">
+        <v>48</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="L165" t="s">
+        <v>47</v>
+      </c>
+      <c r="P165">
+        <v>201110949</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>150</v>
+      </c>
+      <c r="R165" s="16">
+        <v>40624</v>
+      </c>
+      <c r="S165">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="4:19">
+      <c r="D166" t="s">
+        <v>156</v>
+      </c>
+      <c r="E166" s="16">
+        <f t="shared" si="10"/>
+        <v>40624</v>
+      </c>
+      <c r="F166" t="s">
+        <v>50</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.2</v>
+      </c>
+      <c r="H166" t="s">
+        <v>49</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="12"/>
+        <v>201117818</v>
+      </c>
+      <c r="J166" t="s">
+        <v>48</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="L166" t="s">
+        <v>47</v>
+      </c>
+      <c r="P166">
+        <v>201117818</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>150</v>
+      </c>
+      <c r="R166" s="16">
+        <v>40624</v>
+      </c>
+      <c r="S166">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="4:19">
+      <c r="D167" t="s">
+        <v>156</v>
+      </c>
+      <c r="E167" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F167" t="s">
+        <v>50</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.3</v>
+      </c>
+      <c r="H167" t="s">
+        <v>49</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J167" t="s">
+        <v>48</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="L167" t="s">
+        <v>47</v>
+      </c>
+      <c r="P167">
+        <v>201110949</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>151</v>
+      </c>
+      <c r="R167" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S167">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="4:19">
+      <c r="D168" t="s">
+        <v>156</v>
+      </c>
+      <c r="E168" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F168" t="s">
+        <v>50</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.3</v>
+      </c>
+      <c r="H168" t="s">
+        <v>49</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="12"/>
+        <v>201117818</v>
+      </c>
+      <c r="J168" t="s">
+        <v>48</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="L168" t="s">
+        <v>47</v>
+      </c>
+      <c r="P168">
+        <v>201117818</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>151</v>
+      </c>
+      <c r="R168" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S168">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="4:19">
+      <c r="D169" t="s">
+        <v>156</v>
+      </c>
+      <c r="E169" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F169" t="s">
+        <v>50</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.4</v>
+      </c>
+      <c r="H169" t="s">
+        <v>49</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="12"/>
+        <v>201110949</v>
+      </c>
+      <c r="J169" t="s">
+        <v>48</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
+      <c r="L169" t="s">
+        <v>47</v>
+      </c>
+      <c r="P169">
+        <v>201110949</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>152</v>
+      </c>
+      <c r="R169" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S169">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170" spans="4:19">
+      <c r="D170" t="s">
+        <v>156</v>
+      </c>
+      <c r="E170" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F170" t="s">
+        <v>50</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.4</v>
+      </c>
+      <c r="H170" t="s">
+        <v>49</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="12"/>
+        <v>201117818</v>
+      </c>
+      <c r="J170" t="s">
+        <v>48</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+      <c r="L170" t="s">
+        <v>47</v>
+      </c>
+      <c r="P170">
+        <v>201117818</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>152</v>
+      </c>
+      <c r="R170" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S170">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="4:19">
+      <c r="D171" t="s">
+        <v>156</v>
+      </c>
+      <c r="E171" s="16">
+        <f t="shared" si="10"/>
+        <v>40619</v>
+      </c>
+      <c r="F171" t="s">
+        <v>50</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.1</v>
+      </c>
+      <c r="H171" t="s">
+        <v>49</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="12"/>
+        <v>200819123</v>
+      </c>
+      <c r="J171" t="s">
+        <v>48</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L171" t="s">
+        <v>47</v>
+      </c>
+      <c r="P171">
+        <v>200819123</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>133</v>
+      </c>
+      <c r="R171" s="16">
+        <v>40619</v>
+      </c>
+      <c r="S171">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="4:19">
+      <c r="D172" t="s">
+        <v>156</v>
+      </c>
+      <c r="E172" s="16">
+        <f t="shared" si="10"/>
+        <v>40619</v>
+      </c>
+      <c r="F172" t="s">
+        <v>50</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.2</v>
+      </c>
+      <c r="H172" t="s">
+        <v>49</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="12"/>
+        <v>200819123</v>
+      </c>
+      <c r="J172" t="s">
+        <v>48</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="L172" t="s">
+        <v>47</v>
+      </c>
+      <c r="P172">
+        <v>200819123</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>153</v>
+      </c>
+      <c r="R172" s="16">
+        <v>40619</v>
+      </c>
+      <c r="S172">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="4:19">
+      <c r="D173" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F173" t="s">
+        <v>50</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.3</v>
+      </c>
+      <c r="H173" t="s">
+        <v>49</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="12"/>
+        <v>200819123</v>
+      </c>
+      <c r="J173" t="s">
+        <v>48</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="L173" t="s">
+        <v>47</v>
+      </c>
+      <c r="P173">
+        <v>200819123</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>138</v>
+      </c>
+      <c r="R173" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S173">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="4:19">
+      <c r="D174" t="s">
+        <v>156</v>
+      </c>
+      <c r="E174" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F174" t="s">
+        <v>50</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.2.1</v>
+      </c>
+      <c r="H174" t="s">
+        <v>49</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="12"/>
+        <v>200819123</v>
+      </c>
+      <c r="J174" t="s">
+        <v>48</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="L174" t="s">
+        <v>47</v>
+      </c>
+      <c r="P174">
+        <v>200819123</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>154</v>
+      </c>
+      <c r="R174" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S174">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="4:19">
+      <c r="D175" t="s">
+        <v>156</v>
+      </c>
+      <c r="E175" s="16">
+        <f t="shared" si="10"/>
+        <v>40619</v>
+      </c>
+      <c r="F175" t="s">
+        <v>50</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J175" t="s">
+        <v>48</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="L175" t="s">
+        <v>47</v>
+      </c>
+      <c r="P175">
+        <v>201110951</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>133</v>
+      </c>
+      <c r="R175" s="16">
+        <v>40619</v>
+      </c>
+      <c r="S175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="4:19">
+      <c r="D176" t="s">
+        <v>156</v>
+      </c>
+      <c r="E176" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F176" t="s">
+        <v>50</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.1.3</v>
+      </c>
+      <c r="H176" t="s">
+        <v>49</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J176" t="s">
+        <v>48</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L176" t="s">
+        <v>47</v>
+      </c>
+      <c r="P176">
+        <v>201110951</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>138</v>
+      </c>
+      <c r="R176" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S176">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="4:19">
+      <c r="D177" t="s">
+        <v>156</v>
+      </c>
+      <c r="E177" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F177" t="s">
+        <v>50</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.2.1</v>
+      </c>
+      <c r="H177" t="s">
+        <v>49</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J177" t="s">
+        <v>48</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="L177" t="s">
+        <v>47</v>
+      </c>
+      <c r="P177">
+        <v>201110951</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>154</v>
+      </c>
+      <c r="R177" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S177">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178" spans="4:19">
+      <c r="D178" t="s">
+        <v>156</v>
+      </c>
+      <c r="E178" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F178" t="s">
+        <v>50</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.2.3</v>
+      </c>
+      <c r="H178" t="s">
+        <v>49</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J178" t="s">
+        <v>48</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="L178" t="s">
+        <v>47</v>
+      </c>
+      <c r="P178">
+        <v>201110951</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>141</v>
+      </c>
+      <c r="R178" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S178">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="4:19">
+      <c r="D179" t="s">
+        <v>156</v>
+      </c>
+      <c r="E179" s="16">
+        <f t="shared" si="10"/>
+        <v>40621</v>
+      </c>
+      <c r="F179" t="s">
+        <v>50</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.3.2</v>
+      </c>
+      <c r="H179" t="s">
+        <v>49</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J179" t="s">
+        <v>48</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="L179" t="s">
+        <v>47</v>
+      </c>
+      <c r="P179">
+        <v>201110951</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>144</v>
+      </c>
+      <c r="R179" s="16">
+        <v>40621</v>
+      </c>
+      <c r="S179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="4:19">
+      <c r="D180" t="s">
+        <v>156</v>
+      </c>
+      <c r="E180" s="16">
+        <f t="shared" si="10"/>
+        <v>40622</v>
+      </c>
+      <c r="F180" t="s">
+        <v>50</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.5</v>
+      </c>
+      <c r="H180" t="s">
+        <v>49</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="12"/>
+        <v>200819123</v>
+      </c>
+      <c r="J180" t="s">
+        <v>48</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="13"/>
+        <v>140</v>
+      </c>
+      <c r="L180" t="s">
+        <v>47</v>
+      </c>
+      <c r="P180">
+        <v>200819123</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>139</v>
+      </c>
+      <c r="R180" s="16">
+        <v>40622</v>
+      </c>
+      <c r="S180">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="4:19">
+      <c r="D181" t="s">
+        <v>156</v>
+      </c>
+      <c r="E181" s="16">
+        <f t="shared" si="10"/>
+        <v>40622</v>
+      </c>
+      <c r="F181" t="s">
+        <v>50</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.5</v>
+      </c>
+      <c r="H181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J181" t="s">
+        <v>48</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="L181" t="s">
+        <v>47</v>
+      </c>
+      <c r="P181">
+        <v>201110951</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>139</v>
+      </c>
+      <c r="R181" s="16">
+        <v>40622</v>
+      </c>
+      <c r="S181">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="182" spans="4:19">
+      <c r="D182" t="s">
+        <v>156</v>
+      </c>
+      <c r="E182" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F182" t="s">
+        <v>50</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.6</v>
+      </c>
+      <c r="H182" t="s">
+        <v>49</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="12"/>
+        <v>200819123</v>
+      </c>
+      <c r="J182" t="s">
+        <v>48</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L182" t="s">
+        <v>47</v>
+      </c>
+      <c r="P182">
+        <v>200819123</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>146</v>
+      </c>
+      <c r="R182" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S182">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="4:19">
+      <c r="D183" t="s">
+        <v>156</v>
+      </c>
+      <c r="E183" s="16">
+        <f t="shared" si="10"/>
+        <v>40623</v>
+      </c>
+      <c r="F183" t="s">
+        <v>50</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.5.6</v>
+      </c>
+      <c r="H183" t="s">
+        <v>49</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J183" t="s">
+        <v>48</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L183" t="s">
+        <v>47</v>
+      </c>
+      <c r="P183">
+        <v>201110951</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>146</v>
+      </c>
+      <c r="R183" s="16">
+        <v>40623</v>
+      </c>
+      <c r="S183">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="4:19">
+      <c r="D184" t="s">
+        <v>156</v>
+      </c>
+      <c r="E184" s="16">
+        <f t="shared" si="10"/>
+        <v>40624</v>
+      </c>
+      <c r="F184" t="s">
+        <v>50</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.7.1</v>
+      </c>
+      <c r="H184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="12"/>
+        <v>200819123</v>
+      </c>
+      <c r="J184" t="s">
+        <v>48</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="L184" t="s">
+        <v>47</v>
+      </c>
+      <c r="P184">
+        <v>200819123</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>142</v>
+      </c>
+      <c r="R184" s="16">
+        <v>40624</v>
+      </c>
+      <c r="S184">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185" spans="4:19">
+      <c r="D185" t="s">
+        <v>156</v>
+      </c>
+      <c r="E185" s="16">
+        <f t="shared" si="10"/>
+        <v>40624</v>
+      </c>
+      <c r="F185" t="s">
+        <v>50</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.7.2</v>
+      </c>
+      <c r="H185" t="s">
+        <v>49</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J185" t="s">
+        <v>48</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="L185" t="s">
+        <v>47</v>
+      </c>
+      <c r="P185">
+        <v>201110951</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>155</v>
+      </c>
+      <c r="R185" s="16">
+        <v>40624</v>
+      </c>
+      <c r="S185">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="4:19">
+      <c r="D186" t="s">
+        <v>156</v>
+      </c>
+      <c r="E186" s="16">
+        <f t="shared" si="10"/>
+        <v>40624</v>
+      </c>
+      <c r="F186" t="s">
+        <v>50</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.7.1</v>
+      </c>
+      <c r="H186" t="s">
+        <v>49</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="12"/>
+        <v>201110951</v>
+      </c>
+      <c r="J186" t="s">
+        <v>48</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="L186" t="s">
+        <v>47</v>
+      </c>
+      <c r="P186">
+        <v>201110951</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>142</v>
+      </c>
+      <c r="R186" s="16">
+        <v>40624</v>
+      </c>
+      <c r="S186">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="4:19">
+      <c r="D187" t="s">
+        <v>156</v>
+      </c>
+      <c r="E187" s="16">
+        <f t="shared" si="10"/>
+        <v>40624</v>
+      </c>
+      <c r="F187" t="s">
+        <v>50</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4.7.2</v>
+      </c>
+      <c r="H187" t="s">
+        <v>49</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="12"/>
+        <v>200819123</v>
+      </c>
+      <c r="J187" t="s">
+        <v>48</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="L187" t="s">
+        <v>47</v>
+      </c>
+      <c r="P187">
+        <v>200819123</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>155</v>
+      </c>
+      <c r="R187" s="16">
+        <v>40624</v>
+      </c>
+      <c r="S187">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/CSOF5101 Ingeniera de Software/TSP/Util.xlsx
+++ b/trunk/CSOF5101 Ingeniera de Software/TSP/Util.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="180">
   <si>
     <t>b0</t>
   </si>
@@ -489,16 +489,73 @@
     <t xml:space="preserve"> @LogT(cycle = CYCLE_2, date = "</t>
   </si>
   <si>
-    <t>David Pérez</t>
-  </si>
-  <si>
     <t>sandra</t>
   </si>
   <si>
     <t>carlos</t>
   </si>
   <si>
-    <t>erik</t>
+    <t>1.5.6.1</t>
+  </si>
+  <si>
+    <t>1.5.6.2</t>
+  </si>
+  <si>
+    <t>1.5.1.1</t>
+  </si>
+  <si>
+    <t>1.5.1.2</t>
+  </si>
+  <si>
+    <t>1.5.1.4</t>
+  </si>
+  <si>
+    <t>1.5.2.3</t>
+  </si>
+  <si>
+    <t>1.5.3.2</t>
+  </si>
+  <si>
+    <t>1.5.4.2</t>
+  </si>
+  <si>
+    <t>1.5.5.6</t>
+  </si>
+  <si>
+    <t>1.5.5.7</t>
+  </si>
+  <si>
+    <t>1.5.5.1</t>
+  </si>
+  <si>
+    <t>1.5.5.2</t>
+  </si>
+  <si>
+    <t>1.5.7.3</t>
+  </si>
+  <si>
+    <t>1.5.1.3</t>
+  </si>
+  <si>
+    <t>1.5.2.1</t>
+  </si>
+  <si>
+    <t>1.5.5.3</t>
+  </si>
+  <si>
+    <t>1.5.5.5</t>
+  </si>
+  <si>
+    <t>1.5.6.3</t>
+  </si>
+  <si>
+    <t>1.5.7.1</t>
+  </si>
+  <si>
+    <t>1.5.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @LogT(cycle = CYCLE_3, date = "</t>
   </si>
 </sst>
 </file>
@@ -886,11 +943,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="46553728"/>
-        <c:axId val="46576768"/>
+        <c:axId val="68598400"/>
+        <c:axId val="68760704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46553728"/>
+        <c:axId val="68598400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -932,13 +989,13 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46576768"/>
+        <c:crossAx val="68760704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46576768"/>
+        <c:axId val="68760704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -980,7 +1037,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46553728"/>
+        <c:crossAx val="68598400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1011,7 +1068,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1093,19 +1150,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -1164,13 +1221,13 @@
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -1232,16 +1289,16 @@
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -1297,19 +1354,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.8</c:v>
@@ -1318,11 +1375,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46595456"/>
-        <c:axId val="77633024"/>
+        <c:axId val="68808064"/>
+        <c:axId val="68920832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46595456"/>
+        <c:axId val="68808064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,14 +1404,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77633024"/>
+        <c:crossAx val="68920832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77633024"/>
+        <c:axId val="68920832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1382,7 +1439,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46595456"/>
+        <c:crossAx val="68808064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1400,7 +1457,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2111,11 +2168,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AA187"/>
+  <dimension ref="B2:AA238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:N50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -2458,13 +2513,13 @@
     </row>
     <row r="36" spans="3:27">
       <c r="C36" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="D36" s="12">
         <v>5</v>
       </c>
       <c r="E36" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36" s="11">
         <v>5</v>
@@ -2473,25 +2528,25 @@
         <v>4</v>
       </c>
       <c r="H36" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36" s="11">
         <v>5</v>
       </c>
       <c r="J36" s="11">
+        <v>5</v>
+      </c>
+      <c r="K36" s="10">
+        <v>5</v>
+      </c>
+      <c r="L36" s="12">
+        <v>5</v>
+      </c>
+      <c r="M36" s="11">
+        <v>5</v>
+      </c>
+      <c r="N36" s="11">
         <v>4</v>
-      </c>
-      <c r="K36" s="10">
-        <v>4</v>
-      </c>
-      <c r="L36" s="12">
-        <v>5</v>
-      </c>
-      <c r="M36" s="11">
-        <v>5</v>
-      </c>
-      <c r="N36" s="11">
-        <v>5</v>
       </c>
       <c r="O36" s="10">
         <v>4</v>
@@ -2510,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="W36" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X36" s="12">
         <v>5</v>
@@ -2527,10 +2582,10 @@
     </row>
     <row r="37" spans="3:27">
       <c r="C37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="11">
         <v>5</v>
@@ -2545,15 +2600,23 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="10"/>
+      <c r="L37" s="12">
+        <v>5</v>
+      </c>
+      <c r="M37" s="11">
+        <v>4</v>
+      </c>
+      <c r="N37" s="11">
+        <v>5</v>
+      </c>
+      <c r="O37" s="10">
+        <v>5</v>
+      </c>
       <c r="P37" s="12">
         <v>4</v>
       </c>
       <c r="Q37" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" s="11">
         <v>5</v>
@@ -2588,19 +2651,19 @@
     </row>
     <row r="38" spans="3:27">
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="12">
         <v>4</v>
       </c>
       <c r="E38" s="11">
+        <v>5</v>
+      </c>
+      <c r="F38" s="11">
         <v>4</v>
       </c>
-      <c r="F38" s="11">
-        <v>5</v>
-      </c>
       <c r="G38" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="12">
         <v>4</v>
@@ -2609,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="J38" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L38" s="12">
         <v>4</v>
@@ -2621,16 +2684,16 @@
         <v>5</v>
       </c>
       <c r="N38" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O38" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P38" s="12">
         <v>4</v>
       </c>
       <c r="Q38" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R38" s="11">
         <v>4</v>
@@ -2638,26 +2701,26 @@
       <c r="S38" s="10">
         <v>4</v>
       </c>
-      <c r="T38" s="12"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="12">
-        <v>5</v>
-      </c>
-      <c r="Y38" s="11">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="11">
-        <v>5</v>
-      </c>
-      <c r="AA38" s="10">
-        <v>5</v>
-      </c>
+      <c r="T38" s="12">
+        <v>4</v>
+      </c>
+      <c r="U38" s="11">
+        <v>5</v>
+      </c>
+      <c r="V38" s="11">
+        <v>5</v>
+      </c>
+      <c r="W38" s="10">
+        <v>4</v>
+      </c>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="10"/>
     </row>
     <row r="39" spans="3:27">
       <c r="C39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="12">
         <v>4</v>
@@ -2669,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39" s="12">
         <v>4</v>
@@ -2681,36 +2744,36 @@
         <v>5</v>
       </c>
       <c r="K39" s="10">
-        <v>5</v>
-      </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="L39" s="12">
+        <v>4</v>
+      </c>
+      <c r="M39" s="11">
+        <v>5</v>
+      </c>
+      <c r="N39" s="11">
+        <v>5</v>
+      </c>
+      <c r="O39" s="10">
+        <v>5</v>
+      </c>
       <c r="P39" s="12">
         <v>4</v>
       </c>
       <c r="Q39" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39" s="11">
         <v>5</v>
       </c>
       <c r="S39" s="10">
-        <v>4</v>
-      </c>
-      <c r="T39" s="12">
-        <v>5</v>
-      </c>
-      <c r="U39" s="11">
-        <v>5</v>
-      </c>
-      <c r="V39" s="11">
-        <v>5</v>
-      </c>
-      <c r="W39" s="10">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="T39" s="12"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="10"/>
       <c r="X39" s="12">
         <v>5</v>
       </c>
@@ -2726,23 +2789,23 @@
     </row>
     <row r="40" spans="3:27">
       <c r="C40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="10"/>
       <c r="H40" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40" s="11">
         <v>5</v>
       </c>
       <c r="K40" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L40" s="12">
         <v>5</v>
@@ -2751,13 +2814,13 @@
         <v>5</v>
       </c>
       <c r="N40" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O40" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P40" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" s="11">
         <v>5</v>
@@ -2766,7 +2829,7 @@
         <v>5</v>
       </c>
       <c r="S40" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" s="12">
         <v>5</v>
@@ -2775,7 +2838,7 @@
         <v>5</v>
       </c>
       <c r="V40" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W40" s="10">
         <v>5</v>
@@ -2795,7 +2858,7 @@
     </row>
     <row r="41" spans="3:27">
       <c r="C41" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="D41" s="9">
         <v>5</v>
@@ -2804,35 +2867,27 @@
         <v>5</v>
       </c>
       <c r="F41" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41" s="9">
         <v>4</v>
       </c>
       <c r="I41" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41" s="7">
-        <v>4</v>
-      </c>
-      <c r="L41" s="9">
-        <v>4</v>
-      </c>
-      <c r="M41" s="8">
-        <v>5</v>
-      </c>
-      <c r="N41" s="8">
-        <v>5</v>
-      </c>
-      <c r="O41" s="7">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="7"/>
       <c r="P41" s="9">
         <v>4</v>
       </c>
@@ -2840,10 +2895,10 @@
         <v>5</v>
       </c>
       <c r="R41" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" s="9">
         <v>5</v>
@@ -2852,15 +2907,23 @@
         <v>5</v>
       </c>
       <c r="V41" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W41" s="7">
         <v>5</v>
       </c>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="7"/>
+      <c r="X41" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="3:27">
       <c r="H45" t="s">
@@ -2888,7 +2951,7 @@
       </c>
       <c r="H46" s="6">
         <f>ROUND(AVERAGE(D36:D41),2)</f>
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I46" s="6">
         <f>ROUND(AVERAGE(H36:H41),2)</f>
@@ -2896,15 +2959,15 @@
       </c>
       <c r="J46" s="6">
         <f>ROUND(AVERAGE(L36:L41),2)</f>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K46" s="6">
         <f>ROUND(AVERAGE(P36:P41),2)</f>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L46" s="6">
         <f>ROUND(AVERAGE(T36:T41),2)</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="M46" s="6">
         <f>ROUND(AVERAGE(X36:X41),2)</f>
@@ -2912,7 +2975,7 @@
       </c>
       <c r="N46" s="6">
         <f>AVERAGE(H46:M46)</f>
-        <v>4.55</v>
+        <v>4.5333333333333341</v>
       </c>
     </row>
     <row r="47" spans="3:27">
@@ -2925,15 +2988,15 @@
       </c>
       <c r="I47" s="6">
         <f>ROUND(AVERAGE(I36:I41),2)</f>
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="J47" s="6">
         <f>ROUND(AVERAGE(M36:M41),2)</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K47" s="6">
         <f>ROUND(AVERAGE(Q36:Q41),2)</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L47" s="6">
         <f>ROUND(AVERAGE(U36:U41),2)</f>
@@ -2945,7 +3008,7 @@
       </c>
       <c r="N47" s="6">
         <f>AVERAGE(H47:M47)</f>
-        <v>4.8666666666666663</v>
+        <v>4.8666666666666671</v>
       </c>
     </row>
     <row r="48" spans="3:27">
@@ -2958,19 +3021,19 @@
       </c>
       <c r="I48" s="6">
         <f>ROUND(AVERAGE(J36:J41),2)</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="J48" s="6">
         <f>ROUND(AVERAGE(N36:N41),2)</f>
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K48" s="6">
         <f>ROUND(AVERAGE(R36:R41),2)</f>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L48" s="6">
         <f>ROUND(AVERAGE(V36:V41),2)</f>
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="M48" s="6">
         <f>ROUND(AVERAGE(Z36:Z41),2)</f>
@@ -2978,7 +3041,7 @@
       </c>
       <c r="N48" s="6">
         <f>AVERAGE(H48:M48)</f>
-        <v>4.6833333333333336</v>
+        <v>4.8666666666666663</v>
       </c>
     </row>
     <row r="49" spans="7:14">
@@ -2987,23 +3050,23 @@
       </c>
       <c r="H49" s="6">
         <f>ROUND(AVERAGE(G36:G41),2)</f>
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I49" s="6">
         <f>ROUND(AVERAGE(K36:K41),2)</f>
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J49" s="6">
         <f>ROUND(AVERAGE(O36:O41),2)</f>
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K49" s="6">
         <f>ROUND(AVERAGE(S36:S41),2)</f>
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L49" s="6">
         <f>ROUND(AVERAGE(W36:W41),2)</f>
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M49" s="6">
         <f>ROUND(AVERAGE(AA36:AA41),2)</f>
@@ -3011,7 +3074,7 @@
       </c>
       <c r="N49" s="6">
         <f>AVERAGE(H49:M49)</f>
-        <v>4.4000000000000004</v>
+        <v>4.7333333333333334</v>
       </c>
     </row>
     <row r="50" spans="7:14">
@@ -3021,15 +3084,15 @@
       </c>
       <c r="I50" s="6">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="L50" s="6">
         <f t="shared" si="1"/>
@@ -5736,28 +5799,28 @@
         <v>156</v>
       </c>
       <c r="E137" s="16">
-        <f t="shared" ref="E136:E187" si="10">R137</f>
+        <f t="shared" ref="E137:E187" si="10">R137</f>
         <v>40620</v>
       </c>
       <c r="F137" t="s">
         <v>50</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" ref="G136:G187" si="11">Q137</f>
+        <f t="shared" ref="G137:G187" si="11">Q137</f>
         <v>1.4.1.1</v>
       </c>
       <c r="H137" t="s">
         <v>49</v>
       </c>
       <c r="I137">
-        <f t="shared" ref="I136:I187" si="12">P137</f>
+        <f t="shared" ref="I137:I187" si="12">P137</f>
         <v>201110544</v>
       </c>
       <c r="J137" t="s">
         <v>48</v>
       </c>
       <c r="K137">
-        <f t="shared" ref="K136:K187" si="13">S137</f>
+        <f t="shared" ref="K137:K187" si="13">S137</f>
         <v>60</v>
       </c>
       <c r="L137" t="s">
@@ -8024,6 +8087,2259 @@
       </c>
       <c r="S187">
         <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="4:19">
+      <c r="E188" s="16"/>
+    </row>
+    <row r="189" spans="4:19">
+      <c r="D189" t="s">
+        <v>179</v>
+      </c>
+      <c r="E189" s="16">
+        <f t="shared" ref="E188:E238" si="14">R189</f>
+        <v>40629</v>
+      </c>
+      <c r="F189" t="s">
+        <v>50</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" ref="G188:G238" si="15">Q189</f>
+        <v>1.5.6.1</v>
+      </c>
+      <c r="H189" t="s">
+        <v>49</v>
+      </c>
+      <c r="I189">
+        <f t="shared" ref="I188:I238" si="16">P189</f>
+        <v>201110544</v>
+      </c>
+      <c r="J189" t="s">
+        <v>48</v>
+      </c>
+      <c r="K189">
+        <f t="shared" ref="K188:K238" si="17">S189</f>
+        <v>120</v>
+      </c>
+      <c r="L189" t="s">
+        <v>47</v>
+      </c>
+      <c r="P189">
+        <v>201110544</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>159</v>
+      </c>
+      <c r="R189" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S189">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="190" spans="4:19">
+      <c r="D190" t="s">
+        <v>179</v>
+      </c>
+      <c r="E190" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F190" t="s">
+        <v>50</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.6.2</v>
+      </c>
+      <c r="H190" t="s">
+        <v>49</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="16"/>
+        <v>201110544</v>
+      </c>
+      <c r="J190" t="s">
+        <v>48</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="L190" t="s">
+        <v>47</v>
+      </c>
+      <c r="P190">
+        <v>201110544</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>160</v>
+      </c>
+      <c r="R190" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S190">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="4:19">
+      <c r="D191" t="s">
+        <v>179</v>
+      </c>
+      <c r="E191" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F191" t="s">
+        <v>50</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.1</v>
+      </c>
+      <c r="H191" t="s">
+        <v>49</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J191" t="s">
+        <v>48</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="L191" t="s">
+        <v>47</v>
+      </c>
+      <c r="P191">
+        <v>201110949</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>161</v>
+      </c>
+      <c r="R191" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S191">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="4:19">
+      <c r="D192" t="s">
+        <v>179</v>
+      </c>
+      <c r="E192" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F192" t="s">
+        <v>50</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.2</v>
+      </c>
+      <c r="H192" t="s">
+        <v>49</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J192" t="s">
+        <v>48</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="L192" t="s">
+        <v>47</v>
+      </c>
+      <c r="P192">
+        <v>201110949</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>162</v>
+      </c>
+      <c r="R192" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S192">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="4:19">
+      <c r="D193" t="s">
+        <v>179</v>
+      </c>
+      <c r="E193" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F193" t="s">
+        <v>50</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.4</v>
+      </c>
+      <c r="H193" t="s">
+        <v>49</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J193" t="s">
+        <v>48</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="L193" t="s">
+        <v>47</v>
+      </c>
+      <c r="P193">
+        <v>201110949</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>163</v>
+      </c>
+      <c r="R193" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="4:19">
+      <c r="D194" t="s">
+        <v>179</v>
+      </c>
+      <c r="E194" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F194" t="s">
+        <v>50</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.2.3</v>
+      </c>
+      <c r="H194" t="s">
+        <v>49</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J194" t="s">
+        <v>48</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="L194" t="s">
+        <v>47</v>
+      </c>
+      <c r="P194">
+        <v>201110949</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>164</v>
+      </c>
+      <c r="R194" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S194">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="4:19">
+      <c r="D195" t="s">
+        <v>179</v>
+      </c>
+      <c r="E195" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F195" t="s">
+        <v>50</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.3.2</v>
+      </c>
+      <c r="H195" t="s">
+        <v>49</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J195" t="s">
+        <v>48</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="L195" t="s">
+        <v>47</v>
+      </c>
+      <c r="P195">
+        <v>201110949</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>165</v>
+      </c>
+      <c r="R195" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="4:19">
+      <c r="D196" t="s">
+        <v>179</v>
+      </c>
+      <c r="E196" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F196" t="s">
+        <v>50</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.4.2</v>
+      </c>
+      <c r="H196" t="s">
+        <v>49</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J196" t="s">
+        <v>48</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="L196" t="s">
+        <v>47</v>
+      </c>
+      <c r="P196">
+        <v>201110949</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>166</v>
+      </c>
+      <c r="R196" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="4:19">
+      <c r="D197" t="s">
+        <v>179</v>
+      </c>
+      <c r="E197" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F197" t="s">
+        <v>50</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.6</v>
+      </c>
+      <c r="H197" t="s">
+        <v>49</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J197" t="s">
+        <v>48</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="L197" t="s">
+        <v>47</v>
+      </c>
+      <c r="P197">
+        <v>201110949</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>167</v>
+      </c>
+      <c r="R197" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S197">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="4:19">
+      <c r="D198" t="s">
+        <v>179</v>
+      </c>
+      <c r="E198" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F198" t="s">
+        <v>50</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.7</v>
+      </c>
+      <c r="H198" t="s">
+        <v>49</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J198" t="s">
+        <v>48</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="L198" t="s">
+        <v>47</v>
+      </c>
+      <c r="P198">
+        <v>201110949</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>168</v>
+      </c>
+      <c r="R198" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="4:19">
+      <c r="D199" t="s">
+        <v>179</v>
+      </c>
+      <c r="E199" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F199" t="s">
+        <v>50</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.1</v>
+      </c>
+      <c r="H199" t="s">
+        <v>49</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J199" t="s">
+        <v>48</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="L199" t="s">
+        <v>47</v>
+      </c>
+      <c r="P199">
+        <v>201110949</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>169</v>
+      </c>
+      <c r="R199" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S199">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="4:19">
+      <c r="D200" t="s">
+        <v>179</v>
+      </c>
+      <c r="E200" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F200" t="s">
+        <v>50</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.2</v>
+      </c>
+      <c r="H200" t="s">
+        <v>49</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J200" t="s">
+        <v>48</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="L200" t="s">
+        <v>47</v>
+      </c>
+      <c r="P200">
+        <v>201110949</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>170</v>
+      </c>
+      <c r="R200" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S200">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="4:19">
+      <c r="D201" t="s">
+        <v>179</v>
+      </c>
+      <c r="E201" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F201" t="s">
+        <v>50</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.7.3</v>
+      </c>
+      <c r="H201" t="s">
+        <v>49</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="16"/>
+        <v>201110949</v>
+      </c>
+      <c r="J201" t="s">
+        <v>48</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="L201" t="s">
+        <v>47</v>
+      </c>
+      <c r="P201">
+        <v>201110949</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>171</v>
+      </c>
+      <c r="R201" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="4:19">
+      <c r="D202" t="s">
+        <v>179</v>
+      </c>
+      <c r="E202" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F202" t="s">
+        <v>50</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.1</v>
+      </c>
+      <c r="H202" t="s">
+        <v>49</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J202" t="s">
+        <v>48</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="L202" t="s">
+        <v>47</v>
+      </c>
+      <c r="P202">
+        <v>201110951</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>161</v>
+      </c>
+      <c r="R202" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S202">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" spans="4:19">
+      <c r="D203" t="s">
+        <v>179</v>
+      </c>
+      <c r="E203" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F203" t="s">
+        <v>50</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.3</v>
+      </c>
+      <c r="H203" t="s">
+        <v>49</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J203" t="s">
+        <v>48</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="L203" t="s">
+        <v>47</v>
+      </c>
+      <c r="P203">
+        <v>201110951</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>172</v>
+      </c>
+      <c r="R203" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S203">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="4:19">
+      <c r="D204" t="s">
+        <v>179</v>
+      </c>
+      <c r="E204" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F204" t="s">
+        <v>50</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.4</v>
+      </c>
+      <c r="H204" t="s">
+        <v>49</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="L204" t="s">
+        <v>47</v>
+      </c>
+      <c r="P204">
+        <v>201110951</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>163</v>
+      </c>
+      <c r="R204" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="4:19">
+      <c r="D205" t="s">
+        <v>179</v>
+      </c>
+      <c r="E205" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F205" t="s">
+        <v>50</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.2.1</v>
+      </c>
+      <c r="H205" t="s">
+        <v>49</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J205" t="s">
+        <v>48</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="L205" t="s">
+        <v>47</v>
+      </c>
+      <c r="P205">
+        <v>201110951</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>173</v>
+      </c>
+      <c r="R205" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="4:19">
+      <c r="D206" t="s">
+        <v>179</v>
+      </c>
+      <c r="E206" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F206" t="s">
+        <v>50</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.2.3</v>
+      </c>
+      <c r="H206" t="s">
+        <v>49</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J206" t="s">
+        <v>48</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="L206" t="s">
+        <v>47</v>
+      </c>
+      <c r="P206">
+        <v>201110951</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>164</v>
+      </c>
+      <c r="R206" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="4:19">
+      <c r="D207" t="s">
+        <v>179</v>
+      </c>
+      <c r="E207" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F207" t="s">
+        <v>50</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.3.2</v>
+      </c>
+      <c r="H207" t="s">
+        <v>49</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J207" t="s">
+        <v>48</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="L207" t="s">
+        <v>47</v>
+      </c>
+      <c r="P207">
+        <v>201110951</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>165</v>
+      </c>
+      <c r="R207" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="4:19">
+      <c r="D208" t="s">
+        <v>179</v>
+      </c>
+      <c r="E208" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F208" t="s">
+        <v>50</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.4.2</v>
+      </c>
+      <c r="H208" t="s">
+        <v>49</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J208" t="s">
+        <v>48</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="L208" t="s">
+        <v>47</v>
+      </c>
+      <c r="P208">
+        <v>201110951</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>166</v>
+      </c>
+      <c r="R208" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S208">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="4:19">
+      <c r="D209" t="s">
+        <v>179</v>
+      </c>
+      <c r="E209" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F209" t="s">
+        <v>50</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.3</v>
+      </c>
+      <c r="H209" t="s">
+        <v>49</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J209" t="s">
+        <v>48</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="17"/>
+        <v>240</v>
+      </c>
+      <c r="L209" t="s">
+        <v>47</v>
+      </c>
+      <c r="P209">
+        <v>201110951</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>174</v>
+      </c>
+      <c r="R209" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S209">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="210" spans="4:19">
+      <c r="D210" t="s">
+        <v>179</v>
+      </c>
+      <c r="E210" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F210" t="s">
+        <v>50</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.3</v>
+      </c>
+      <c r="H210" t="s">
+        <v>49</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J210" t="s">
+        <v>48</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="L210" t="s">
+        <v>47</v>
+      </c>
+      <c r="P210">
+        <v>201110951</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>174</v>
+      </c>
+      <c r="R210" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S210">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211" spans="4:19">
+      <c r="D211" t="s">
+        <v>179</v>
+      </c>
+      <c r="E211" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F211" t="s">
+        <v>50</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.2</v>
+      </c>
+      <c r="H211" t="s">
+        <v>49</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J211" t="s">
+        <v>48</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="L211" t="s">
+        <v>47</v>
+      </c>
+      <c r="P211">
+        <v>201110951</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>170</v>
+      </c>
+      <c r="R211" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S211">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="212" spans="4:19">
+      <c r="D212" t="s">
+        <v>179</v>
+      </c>
+      <c r="E212" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F212" t="s">
+        <v>50</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.5</v>
+      </c>
+      <c r="H212" t="s">
+        <v>49</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J212" t="s">
+        <v>48</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="L212" t="s">
+        <v>47</v>
+      </c>
+      <c r="P212">
+        <v>201110951</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>175</v>
+      </c>
+      <c r="R212" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="4:19">
+      <c r="D213" t="s">
+        <v>179</v>
+      </c>
+      <c r="E213" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F213" t="s">
+        <v>50</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.6</v>
+      </c>
+      <c r="H213" t="s">
+        <v>49</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J213" t="s">
+        <v>48</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="L213" t="s">
+        <v>47</v>
+      </c>
+      <c r="P213">
+        <v>201110951</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>167</v>
+      </c>
+      <c r="R213" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="4:19">
+      <c r="D214" t="s">
+        <v>179</v>
+      </c>
+      <c r="E214" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F214" t="s">
+        <v>50</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.7</v>
+      </c>
+      <c r="H214" t="s">
+        <v>49</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J214" t="s">
+        <v>48</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="L214" t="s">
+        <v>47</v>
+      </c>
+      <c r="P214">
+        <v>201110951</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>168</v>
+      </c>
+      <c r="R214" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="4:19">
+      <c r="D215" t="s">
+        <v>179</v>
+      </c>
+      <c r="E215" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F215" t="s">
+        <v>50</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.6.1</v>
+      </c>
+      <c r="H215" t="s">
+        <v>49</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J215" t="s">
+        <v>48</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="L215" t="s">
+        <v>47</v>
+      </c>
+      <c r="P215">
+        <v>201110951</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>159</v>
+      </c>
+      <c r="R215" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="4:19">
+      <c r="D216" t="s">
+        <v>179</v>
+      </c>
+      <c r="E216" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F216" t="s">
+        <v>50</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.6.3</v>
+      </c>
+      <c r="H216" t="s">
+        <v>49</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J216" t="s">
+        <v>48</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="L216" t="s">
+        <v>47</v>
+      </c>
+      <c r="P216">
+        <v>201110951</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>176</v>
+      </c>
+      <c r="R216" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="4:19">
+      <c r="D217" t="s">
+        <v>179</v>
+      </c>
+      <c r="E217" s="16">
+        <f t="shared" si="14"/>
+        <v>40630</v>
+      </c>
+      <c r="F217" t="s">
+        <v>50</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.7.1</v>
+      </c>
+      <c r="H217" t="s">
+        <v>49</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J217" t="s">
+        <v>48</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="L217" t="s">
+        <v>47</v>
+      </c>
+      <c r="P217">
+        <v>201110951</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>177</v>
+      </c>
+      <c r="R217" s="16">
+        <v>40630</v>
+      </c>
+      <c r="S217">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="4:19">
+      <c r="D218" t="s">
+        <v>179</v>
+      </c>
+      <c r="E218" s="16">
+        <f t="shared" si="14"/>
+        <v>40630</v>
+      </c>
+      <c r="F218" t="s">
+        <v>50</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.7.3</v>
+      </c>
+      <c r="H218" t="s">
+        <v>49</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="16"/>
+        <v>201110951</v>
+      </c>
+      <c r="J218" t="s">
+        <v>48</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="L218" t="s">
+        <v>47</v>
+      </c>
+      <c r="P218">
+        <v>201110951</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>171</v>
+      </c>
+      <c r="R218" s="16">
+        <v>40630</v>
+      </c>
+      <c r="S218">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="4:19">
+      <c r="D219" t="s">
+        <v>179</v>
+      </c>
+      <c r="E219" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F219" t="s">
+        <v>50</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.6.1</v>
+      </c>
+      <c r="H219" t="s">
+        <v>49</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="16"/>
+        <v>201110544</v>
+      </c>
+      <c r="J219" t="s">
+        <v>48</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="L219" t="s">
+        <v>47</v>
+      </c>
+      <c r="P219">
+        <v>201110544</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>159</v>
+      </c>
+      <c r="R219" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S219">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="220" spans="4:19">
+      <c r="D220" t="s">
+        <v>179</v>
+      </c>
+      <c r="E220" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F220" t="s">
+        <v>50</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.6.2</v>
+      </c>
+      <c r="H220" t="s">
+        <v>49</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="16"/>
+        <v>201110544</v>
+      </c>
+      <c r="J220" t="s">
+        <v>48</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="L220" t="s">
+        <v>47</v>
+      </c>
+      <c r="P220">
+        <v>201110544</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>160</v>
+      </c>
+      <c r="R220" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S220">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="4:19">
+      <c r="D221" t="s">
+        <v>179</v>
+      </c>
+      <c r="E221" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F221" t="s">
+        <v>50</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.1</v>
+      </c>
+      <c r="H221" t="s">
+        <v>49</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J221" t="s">
+        <v>48</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="17"/>
+        <v>44</v>
+      </c>
+      <c r="L221" t="s">
+        <v>47</v>
+      </c>
+      <c r="P221">
+        <v>201117818</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>161</v>
+      </c>
+      <c r="R221" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S221">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="222" spans="4:19">
+      <c r="D222" t="s">
+        <v>179</v>
+      </c>
+      <c r="E222" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F222" t="s">
+        <v>50</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.3</v>
+      </c>
+      <c r="H222" t="s">
+        <v>49</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J222" t="s">
+        <v>48</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="17"/>
+        <v>33</v>
+      </c>
+      <c r="L222" t="s">
+        <v>47</v>
+      </c>
+      <c r="P222">
+        <v>201117818</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>172</v>
+      </c>
+      <c r="R222" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S222">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="4:19">
+      <c r="D223" t="s">
+        <v>179</v>
+      </c>
+      <c r="E223" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F223" t="s">
+        <v>50</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.4</v>
+      </c>
+      <c r="H223" t="s">
+        <v>49</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J223" t="s">
+        <v>48</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="L223" t="s">
+        <v>47</v>
+      </c>
+      <c r="P223">
+        <v>201117818</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>163</v>
+      </c>
+      <c r="R223" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S223">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="224" spans="4:19">
+      <c r="D224" t="s">
+        <v>179</v>
+      </c>
+      <c r="E224" s="16">
+        <f t="shared" si="14"/>
+        <v>40630</v>
+      </c>
+      <c r="F224" t="s">
+        <v>50</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.2.2</v>
+      </c>
+      <c r="H224" t="s">
+        <v>49</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J224" t="s">
+        <v>48</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="L224" t="s">
+        <v>47</v>
+      </c>
+      <c r="P224">
+        <v>201117818</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>178</v>
+      </c>
+      <c r="R224" s="16">
+        <v>40630</v>
+      </c>
+      <c r="S224">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="225" spans="4:19">
+      <c r="D225" t="s">
+        <v>179</v>
+      </c>
+      <c r="E225" s="16">
+        <f t="shared" si="14"/>
+        <v>40630</v>
+      </c>
+      <c r="F225" t="s">
+        <v>50</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.2.3</v>
+      </c>
+      <c r="H225" t="s">
+        <v>49</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="16"/>
+        <v>200819123</v>
+      </c>
+      <c r="J225" t="s">
+        <v>48</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="L225" t="s">
+        <v>47</v>
+      </c>
+      <c r="P225">
+        <v>200819123</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>164</v>
+      </c>
+      <c r="R225" s="16">
+        <v>40630</v>
+      </c>
+      <c r="S225">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="4:19">
+      <c r="D226" t="s">
+        <v>179</v>
+      </c>
+      <c r="E226" s="16">
+        <f t="shared" si="14"/>
+        <v>40630</v>
+      </c>
+      <c r="F226" t="s">
+        <v>50</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.2.3</v>
+      </c>
+      <c r="H226" t="s">
+        <v>49</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J226" t="s">
+        <v>48</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="L226" t="s">
+        <v>47</v>
+      </c>
+      <c r="P226">
+        <v>201117818</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>164</v>
+      </c>
+      <c r="R226" s="16">
+        <v>40630</v>
+      </c>
+      <c r="S226">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="4:19">
+      <c r="D227" t="s">
+        <v>179</v>
+      </c>
+      <c r="E227" s="16">
+        <f t="shared" si="14"/>
+        <v>40630</v>
+      </c>
+      <c r="F227" t="s">
+        <v>50</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.3.2</v>
+      </c>
+      <c r="H227" t="s">
+        <v>49</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J227" t="s">
+        <v>48</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="L227" t="s">
+        <v>47</v>
+      </c>
+      <c r="P227">
+        <v>201117818</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>165</v>
+      </c>
+      <c r="R227" s="16">
+        <v>40630</v>
+      </c>
+      <c r="S227">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228" spans="4:19">
+      <c r="D228" t="s">
+        <v>179</v>
+      </c>
+      <c r="E228" s="16">
+        <f t="shared" si="14"/>
+        <v>40631</v>
+      </c>
+      <c r="F228" t="s">
+        <v>50</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.6</v>
+      </c>
+      <c r="H228" t="s">
+        <v>49</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J228" t="s">
+        <v>48</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="17"/>
+        <v>140</v>
+      </c>
+      <c r="L228" t="s">
+        <v>47</v>
+      </c>
+      <c r="P228">
+        <v>201117818</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>167</v>
+      </c>
+      <c r="R228" s="16">
+        <v>40631</v>
+      </c>
+      <c r="S228">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="229" spans="4:19">
+      <c r="D229" t="s">
+        <v>179</v>
+      </c>
+      <c r="E229" s="16">
+        <f t="shared" si="14"/>
+        <v>40631</v>
+      </c>
+      <c r="F229" t="s">
+        <v>50</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.7</v>
+      </c>
+      <c r="H229" t="s">
+        <v>49</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J229" t="s">
+        <v>48</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="L229" t="s">
+        <v>47</v>
+      </c>
+      <c r="P229">
+        <v>201117818</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>168</v>
+      </c>
+      <c r="R229" s="16">
+        <v>40631</v>
+      </c>
+      <c r="S229">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="4:19">
+      <c r="D230" t="s">
+        <v>179</v>
+      </c>
+      <c r="E230" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F230" t="s">
+        <v>50</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.6.1</v>
+      </c>
+      <c r="H230" t="s">
+        <v>49</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J230" t="s">
+        <v>48</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="L230" t="s">
+        <v>47</v>
+      </c>
+      <c r="P230">
+        <v>201117818</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>159</v>
+      </c>
+      <c r="R230" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S230">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="4:19">
+      <c r="D231" t="s">
+        <v>179</v>
+      </c>
+      <c r="E231" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F231" t="s">
+        <v>50</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.6.3</v>
+      </c>
+      <c r="H231" t="s">
+        <v>49</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J231" t="s">
+        <v>48</v>
+      </c>
+      <c r="K231">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="L231" t="s">
+        <v>47</v>
+      </c>
+      <c r="P231">
+        <v>201117818</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>176</v>
+      </c>
+      <c r="R231" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S231">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" spans="4:19">
+      <c r="D232" t="s">
+        <v>179</v>
+      </c>
+      <c r="E232" s="16">
+        <f t="shared" si="14"/>
+        <v>40632</v>
+      </c>
+      <c r="F232" t="s">
+        <v>50</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.7.1</v>
+      </c>
+      <c r="H232" t="s">
+        <v>49</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J232" t="s">
+        <v>48</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="L232" t="s">
+        <v>47</v>
+      </c>
+      <c r="P232">
+        <v>201117818</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>177</v>
+      </c>
+      <c r="R232" s="16">
+        <v>40632</v>
+      </c>
+      <c r="S232">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="4:19">
+      <c r="D233" t="s">
+        <v>179</v>
+      </c>
+      <c r="E233" s="16">
+        <f t="shared" si="14"/>
+        <v>40632</v>
+      </c>
+      <c r="F233" t="s">
+        <v>50</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.7.3</v>
+      </c>
+      <c r="H233" t="s">
+        <v>49</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="16"/>
+        <v>201117818</v>
+      </c>
+      <c r="J233" t="s">
+        <v>48</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="17"/>
+        <v>34</v>
+      </c>
+      <c r="L233" t="s">
+        <v>47</v>
+      </c>
+      <c r="P233">
+        <v>201117818</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>171</v>
+      </c>
+      <c r="R233" s="16">
+        <v>40632</v>
+      </c>
+      <c r="S233">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234" spans="4:19">
+      <c r="D234" t="s">
+        <v>179</v>
+      </c>
+      <c r="E234" s="16">
+        <f t="shared" si="14"/>
+        <v>40629</v>
+      </c>
+      <c r="F234" t="s">
+        <v>50</v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.6</v>
+      </c>
+      <c r="H234" t="s">
+        <v>49</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="16"/>
+        <v>200819123</v>
+      </c>
+      <c r="J234" t="s">
+        <v>48</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="L234" t="s">
+        <v>47</v>
+      </c>
+      <c r="P234">
+        <v>200819123</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>167</v>
+      </c>
+      <c r="R234" s="16">
+        <v>40629</v>
+      </c>
+      <c r="S234">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="235" spans="4:19">
+      <c r="D235" t="s">
+        <v>179</v>
+      </c>
+      <c r="E235" s="16">
+        <f t="shared" si="14"/>
+        <v>40628</v>
+      </c>
+      <c r="F235" t="s">
+        <v>50</v>
+      </c>
+      <c r="G235" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.5.6</v>
+      </c>
+      <c r="H235" t="s">
+        <v>49</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="16"/>
+        <v>200819123</v>
+      </c>
+      <c r="J235" t="s">
+        <v>48</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="L235" t="s">
+        <v>47</v>
+      </c>
+      <c r="P235">
+        <v>200819123</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>167</v>
+      </c>
+      <c r="R235" s="16">
+        <v>40628</v>
+      </c>
+      <c r="S235">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="236" spans="4:19">
+      <c r="D236" t="s">
+        <v>179</v>
+      </c>
+      <c r="E236" s="16">
+        <f t="shared" si="14"/>
+        <v>40626</v>
+      </c>
+      <c r="F236" t="s">
+        <v>50</v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.2.1</v>
+      </c>
+      <c r="H236" t="s">
+        <v>49</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="16"/>
+        <v>200819123</v>
+      </c>
+      <c r="J236" t="s">
+        <v>48</v>
+      </c>
+      <c r="K236">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="L236" t="s">
+        <v>47</v>
+      </c>
+      <c r="P236">
+        <v>200819123</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>173</v>
+      </c>
+      <c r="R236" s="16">
+        <v>40626</v>
+      </c>
+      <c r="S236">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="4:19">
+      <c r="D237" t="s">
+        <v>179</v>
+      </c>
+      <c r="E237" s="16">
+        <f t="shared" si="14"/>
+        <v>40626</v>
+      </c>
+      <c r="F237" t="s">
+        <v>50</v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.1.3</v>
+      </c>
+      <c r="H237" t="s">
+        <v>49</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="16"/>
+        <v>200819123</v>
+      </c>
+      <c r="J237" t="s">
+        <v>48</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="L237" t="s">
+        <v>47</v>
+      </c>
+      <c r="P237">
+        <v>200819123</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>172</v>
+      </c>
+      <c r="R237" s="16">
+        <v>40626</v>
+      </c>
+      <c r="S237">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="4:19">
+      <c r="D238" t="s">
+        <v>179</v>
+      </c>
+      <c r="E238" s="16">
+        <f t="shared" si="14"/>
+        <v>40630</v>
+      </c>
+      <c r="F238" t="s">
+        <v>50</v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="15"/>
+        <v>1.5.7.1</v>
+      </c>
+      <c r="H238" t="s">
+        <v>49</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="16"/>
+        <v>200819123</v>
+      </c>
+      <c r="J238" t="s">
+        <v>48</v>
+      </c>
+      <c r="K238">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="L238" t="s">
+        <v>47</v>
+      </c>
+      <c r="P238">
+        <v>200819123</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>177</v>
+      </c>
+      <c r="R238" s="16">
+        <v>40630</v>
+      </c>
+      <c r="S238">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
